--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_NLP_Opt_problem_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_NLP_Opt_problem_Variables.xlsx
@@ -13,25 +13,21 @@
     <sheet name="V_ang(Deg)" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="PGen" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="QGen" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="V_mag_kv" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="V_ang_deg" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="PDem" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="QDem" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="P_gen_MW" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Q_gen_MVar" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="P_line_flow_sending" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Q_line_flow_sending" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="P_line_flow_receiving" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Q_line_flow_receiving" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="P_line_loss" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Q_line_loss" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="PDem" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="QDem" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="P_line_flow_sending" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Q_line_flow_sending" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="P_line_flow_receiving" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Q_line_flow_receiving" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="P_line_loss" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Q_line_loss" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="P_gen_MW" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Q_gen_MVar" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="V_mag_kv" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="V_ang_deg" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="I_line_re" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="I_line_im" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="I_line_sq" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="I_line_mag" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="P_inj" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Q_inj" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="P_cost" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -555,7 +551,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -568,7 +564,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -581,7 +577,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -594,7 +590,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -607,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -620,7 +616,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -633,7 +629,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -646,7 +642,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -659,7 +655,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -672,7 +668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -685,7 +681,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -731,58 +727,6 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -797,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +757,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Buses</t>
+          <t>Index: Lines</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -825,430 +769,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.435137803147285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006</v>
+        <v>2.207819564953777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004</v>
+        <v>1.684198075946988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008</v>
+        <v>1.594063085567754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003</v>
+        <v>1.554539547898841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002</v>
+        <v>0.5278865199921867</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0.4215580893385873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0.3199593633480191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002</v>
+        <v>0.2969559782656717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002</v>
+        <v>0.2744320645207665</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003</v>
+        <v>0.2442490965932897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003500000000000001</v>
+        <v>0.2089578362708533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003500000000000001</v>
+        <v>0.1718601867185043</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008</v>
+        <v>0.09090050212527956</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001</v>
+        <v>0.08058288743765019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002</v>
+        <v>0.06037743878422042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002</v>
+        <v>0.04004156941023851</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004</v>
+        <v>0.1610786011917753</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004</v>
+        <v>0.1209250574725385</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004</v>
+        <v>0.08017526861348045</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004</v>
+        <v>0.0400576246006068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004</v>
+        <v>0.4572427702634485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005</v>
+        <v>0.4050688882465181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02</v>
+        <v>0.2010073106396071</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02</v>
+        <v>0.9736351611294936</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0025</v>
+        <v>0.9473104677124411</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0025</v>
+        <v>0.9206156144619815</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002</v>
+        <v>0.8906519783219835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007000000000000001</v>
+        <v>0.8138278559374612</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06</v>
+        <v>0.2118436596074069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007000000000000001</v>
+        <v>0.1402687667777158</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0.04002037741585696</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>QDem</t>
+          <t>Q_line_flow_sending</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Q_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Q_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Q_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Q_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,7 +1274,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Buses</t>
+          <t>Index: Lines</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1290,430 +1286,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673702063921</v>
+        <v>-3.905433302143809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.004507793661425e-08</v>
+        <v>-3.392505017445302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142265474992319e-08</v>
+        <v>-2.342992212762245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.397309506398162e-08</v>
+        <v>-2.204293410835514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.535955161496049e-08</v>
+        <v>-2.106044975597228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.690727631519336e-08</v>
+        <v>-1.093351621519516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.704096320966337e-08</v>
+        <v>-0.8885137688868311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.735417988226576e-08</v>
+        <v>-0.6843333448212323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.76446122002574e-08</v>
+        <v>-0.6207725414014413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.786461487738024e-08</v>
+        <v>-0.5602189393917207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.789753216948003e-08</v>
+        <v>-0.5143379058832818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.795297772224869e-08</v>
+        <v>-0.4516717771574943</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.813053066750141e-08</v>
+        <v>-0.3909427159397122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.818329879737258e-08</v>
+        <v>-0.2705858414699998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.822044470376766e-08</v>
+        <v>-0.2103044740764361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.825526413982649e-08</v>
+        <v>-0.1500529391029561</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.829830630684931e-08</v>
+        <v>-0.08999990168795705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.831202087200317e-08</v>
+        <v>-0.3609762605001868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.453410287784528e-08</v>
+        <v>-0.2701441500632222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>7.936759890964628e-08</v>
+        <v>-0.1800434715771808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>8.084970166734109e-08</v>
+        <v>-0.08999991802429023</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.197571085531273e-08</v>
+        <v>-0.9364308415513984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9.283664977902124e-08</v>
+        <v>-0.8412872619879529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.449410021305022e-08</v>
+        <v>-0.4199999049286225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.507137322123574e-08</v>
+        <v>-0.9481780470914714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.701999656461075e-08</v>
+        <v>-0.8848491559210224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.715659986019767e-08</v>
+        <v>-0.8135484142236288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.755885343950258e-08</v>
+        <v>-0.7457151725763429</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.778352581184269e-08</v>
+        <v>-0.6218196065243495</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.788482089876661e-08</v>
+        <v>-0.4202260692756293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800906902478989e-08</v>
+        <v>-0.2700129724950211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.80332527006358e-08</v>
+        <v>-0.05999990196072842</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P_gen_MW</t>
+          <t>P_line_flow_receiving</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.803926253655929e-08</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>P_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>P_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>P_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>P_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,7 +1791,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Buses</t>
+          <t>Index: Lines</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1755,430 +1803,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137803147196</v>
+        <v>-2.428898119890874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.625488445045842e-08</v>
+        <v>-2.181440755961468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.02489468442344e-08</v>
+        <v>-1.674062994630923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.093688406074668e-08</v>
+        <v>-1.584539454777527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312134571178393e-08</v>
+        <v>-1.521521585587884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.553386593824635e-08</v>
+        <v>-0.5215579936567138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.568192322083408e-08</v>
+        <v>-0.4199592673421471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.600586480542698e-08</v>
+        <v>-0.3169558819396379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.632604488912212e-08</v>
+        <v>-0.2944319679326846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.65880162914608e-08</v>
+        <v>-0.2742489999641506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.662914587512272e-08</v>
+        <v>-0.2439577395738901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.669695098800127e-08</v>
+        <v>-0.2068600898035822</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.69149513865033e-08</v>
+        <v>-0.1709004051464724</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.697878681637269e-08</v>
+        <v>-0.09058279042394091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.701368724497215e-08</v>
+        <v>-0.08037734173269584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.705151915488465e-08</v>
+        <v>-0.06004147230891377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.710132337626641e-08</v>
+        <v>-0.0399999028809539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.71190497638014e-08</v>
+        <v>-0.1609250080041136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.946841101676622e-08</v>
+        <v>-0.1201752037590431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.485448067203413e-08</v>
+        <v>-0.08005755785113422</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.67494018435757e-08</v>
+        <v>-0.03999993165997751</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.833998555975447e-08</v>
+        <v>-0.4550687997499914</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8.849651247275866e-08</v>
+        <v>-0.4010072199849368</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.065464970136255e-08</v>
+        <v>-0.1999999085367854</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.146321092175854e-08</v>
+        <v>-0.9723103719455395</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.576689382622885e-08</v>
+        <v>-0.9456155184120973</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.604993813130988e-08</v>
+        <v>-0.9106518814705478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.685139761025742e-08</v>
+        <v>-0.8838277586653653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.727205829585891e-08</v>
+        <v>-0.8118435621414477</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.746594436971852e-08</v>
+        <v>-0.2102686692199107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.75576932869804e-08</v>
+        <v>-0.1400202798392414</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.757666773277082e-08</v>
+        <v>-0.03999990241723594</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q_gen_MVar</t>
+          <t>Q_line_flow_receiving</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.758275526275374e-08</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Q_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Q_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Q_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Q_line_flow_receiving</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2220,423 +2320,423 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673702063769</v>
+        <v>0.1224039991996051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.444296147804558</v>
+        <v>0.5179113035925553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.362892640668198</v>
+        <v>0.1990042790595226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.222992306735416</v>
+        <v>0.1869889589990237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.144293506195072</v>
+        <v>0.3824853059784417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.095266133688261</v>
+        <v>0.0191451216874583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8933517185604528</v>
+        <v>0.04837949673621722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6885138662409733</v>
+        <v>0.04180521419741012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6243334424658025</v>
+        <v>0.03560901064361133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5607726392660801</v>
+        <v>0.005536998743593813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5152190372892715</v>
+        <v>0.008811314059897768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4543380038362746</v>
+        <v>0.02666226678780248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3916718752880438</v>
+        <v>0.007291593483316205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2709428141230015</v>
+        <v>0.003569726530017192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2105859396904521</v>
+        <v>0.002814656140159855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1503045723317077</v>
+        <v>0.002516332287516576</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09005303740126194</v>
+        <v>0.0005313571330489708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3611372143838656</v>
+        <v>0.001609538836788715</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2709763250343149</v>
+        <v>0.008321749710926696</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1801442294307969</v>
+        <v>0.001007578536160736</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09004355242694133</v>
+        <v>0.0004363440265109375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9396124681996549</v>
+        <v>0.03181626648256497</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8464309343880515</v>
+        <v>0.05143672400098609</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.421287356482078</v>
+        <v>0.01287451553455554</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9507789388163956</v>
+        <v>0.02600891724924281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8881781441114122</v>
+        <v>0.03328988190389737</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8248492530775559</v>
+        <v>0.1130083885392708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7535485117824654</v>
+        <v>0.07833339206122503</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6257152703598499</v>
+        <v>0.03895663835500329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4218197044091215</v>
+        <v>0.01593635133492199</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2702261672846655</v>
+        <v>0.002131947896444331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06001307052828038</v>
+        <v>0.0001316856755195772</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2649,7 +2749,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2662,7 +2762,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2675,7 +2775,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2688,7 +2788,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P_line_flow_sending</t>
+          <t>P_line_loss</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2737,423 +2837,423 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137803147285</v>
+        <v>0.06239683256410444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207819564953777</v>
+        <v>0.2637880899230893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.684198075946988</v>
+        <v>0.10135081316065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.594063085567754</v>
+        <v>0.09523630790226889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.554539547898841</v>
+        <v>0.3301796231095722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5278865199921867</v>
+        <v>0.06328526335472873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4215580893385873</v>
+        <v>0.01598821996440236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3199593633480191</v>
+        <v>0.03003481408381248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2969559782656717</v>
+        <v>0.02524010332987103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2744320645207665</v>
+        <v>0.001830645566158751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2442490965932897</v>
+        <v>0.002913570193996406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2089578362708533</v>
+        <v>0.02097746467271122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1718601867185043</v>
+        <v>0.009597815720319147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09090050212527956</v>
+        <v>0.003177117013386521</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08058288743765019</v>
+        <v>0.002055457049543463</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06037743878422042</v>
+        <v>0.003359664753066482</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04004156941023851</v>
+        <v>0.000416665292846119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1610786011917753</v>
+        <v>0.001535931876617269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1209250574725385</v>
+        <v>0.007498537134953409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08017526861348045</v>
+        <v>0.001177107623462348</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0400576246006068</v>
+        <v>0.0005769294062929475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4572427702634485</v>
+        <v>0.02173970513457135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4050688882465181</v>
+        <v>0.04061668261581275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2010073106396071</v>
+        <v>0.01007402102821686</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9736351611294936</v>
+        <v>0.01324789183954067</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9473104677124411</v>
+        <v>0.01694949300343751</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9206156144619815</v>
+        <v>0.09963732991433716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8906519783219835</v>
+        <v>0.06824219656618169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8138278559374612</v>
+        <v>0.01984293796013503</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2118436596074069</v>
+        <v>0.015749903874962</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1402687667777158</v>
+        <v>0.00248486938474457</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04002037741585696</v>
+        <v>0.0002047499862101176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3166,7 +3266,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3179,7 +3279,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3192,7 +3292,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3205,7 +3305,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q_line_flow_sending</t>
+          <t>Q_line_loss</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3226,7 +3326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3242,7 +3342,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Lines</t>
+          <t>Index: Buses</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3254,482 +3354,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.905433302143809</v>
+        <v>3.917673702063921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.392505017445302</v>
+        <v>6.004507793661425e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.342992212762245</v>
+        <v>9.142265474992319e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.204293410835514</v>
+        <v>9.397309506398162e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.106044975597228</v>
+        <v>9.535955161496049e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.093351621519516</v>
+        <v>9.690727631519336e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8885137688868311</v>
+        <v>9.704096320966337e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6843333448212323</v>
+        <v>9.735417988226576e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6207725414014413</v>
+        <v>9.76446122002574e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5602189393917207</v>
+        <v>9.786461487738024e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5143379058832818</v>
+        <v>9.789753216948003e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4516717771574943</v>
+        <v>9.795297772224869e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3909427159397122</v>
+        <v>9.813053066750141e-08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2705858414699998</v>
+        <v>9.818329879737258e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2103044740764361</v>
+        <v>9.822044470376766e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1500529391029561</v>
+        <v>9.825526413982649e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08999990168795705</v>
+        <v>9.829830630684931e-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3609762605001868</v>
+        <v>9.831202087200317e-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2701441500632222</v>
+        <v>6.453410287784528e-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1800434715771808</v>
+        <v>7.936759890964628e-08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08999991802429023</v>
+        <v>8.084970166734109e-08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9364308415513984</v>
+        <v>8.197571085531273e-08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8412872619879529</v>
+        <v>9.283664977902124e-08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4199999049286225</v>
+        <v>9.449410021305022e-08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9481780470914714</v>
+        <v>9.507137322123574e-08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8848491559210224</v>
+        <v>9.701999656461075e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8135484142236288</v>
+        <v>9.715659986019767e-08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7457151725763429</v>
+        <v>9.755885343950258e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6218196065243495</v>
+        <v>9.778352581184269e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4202260692756293</v>
+        <v>9.788482089876661e-08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2700129724950211</v>
+        <v>9.800906902478989e-08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.05999990196072842</v>
+        <v>9.80332527006358e-08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P_line_flow_receiving</t>
+          <t>P_gen_MW</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>P_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>P_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>P_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>P_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
+        <v>9.803926253655929e-08</v>
       </c>
     </row>
   </sheetData>
@@ -3743,7 +3791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3759,7 +3807,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Lines</t>
+          <t>Index: Buses</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3771,482 +3819,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.428898119890874</v>
+        <v>2.435137803147196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.181440755961468</v>
+        <v>4.625488445045842e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.674062994630923</v>
+        <v>9.02489468442344e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.584539454777527</v>
+        <v>9.093688406074668e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.521521585587884</v>
+        <v>9.312134571178393e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5215579936567138</v>
+        <v>9.553386593824635e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4199592673421471</v>
+        <v>9.568192322083408e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3169558819396379</v>
+        <v>9.600586480542698e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2944319679326846</v>
+        <v>9.632604488912212e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2742489999641506</v>
+        <v>9.65880162914608e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2439577395738901</v>
+        <v>9.662914587512272e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2068600898035822</v>
+        <v>9.669695098800127e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1709004051464724</v>
+        <v>9.69149513865033e-08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09058279042394091</v>
+        <v>9.697878681637269e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08037734173269584</v>
+        <v>9.701368724497215e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06004147230891377</v>
+        <v>9.705151915488465e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0399999028809539</v>
+        <v>9.710132337626641e-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1609250080041136</v>
+        <v>9.71190497638014e-08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1201752037590431</v>
+        <v>4.946841101676622e-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.08005755785113422</v>
+        <v>6.485448067203413e-08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03999993165997751</v>
+        <v>6.67494018435757e-08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4550687997499914</v>
+        <v>6.833998555975447e-08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4010072199849368</v>
+        <v>8.849651247275866e-08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1999999085367854</v>
+        <v>9.065464970136255e-08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9723103719455395</v>
+        <v>9.146321092175854e-08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9456155184120973</v>
+        <v>9.576689382622885e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9106518814705478</v>
+        <v>9.604993813130988e-08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8838277586653653</v>
+        <v>9.685139761025742e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8118435621414477</v>
+        <v>9.727205829585891e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2102686692199107</v>
+        <v>9.746594436971852e-08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1400202798392414</v>
+        <v>9.75576932869804e-08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03999990241723594</v>
+        <v>9.757666773277082e-08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q_line_flow_receiving</t>
+          <t>Q_gen_MVar</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Q_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Q_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Q_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Q_line_flow_receiving</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
+        <v>9.758275526275374e-08</v>
       </c>
     </row>
   </sheetData>
@@ -4260,7 +4256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4276,7 +4272,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Lines</t>
+          <t>Index: Buses</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4288,482 +4284,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1224039991996051</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5179113035925553</v>
+        <v>12.62242844486865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1990042790595226</v>
+        <v>12.44399508215827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1869889589990237</v>
+        <v>12.34927851677449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3824853059784417</v>
+        <v>12.25563032017614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0191451216874583</v>
+        <v>12.02267325127227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04837949673621722</v>
+        <v>11.97854609700346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04180521419741012</v>
+        <v>11.91721891884643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03560901064361133</v>
+        <v>11.83785271283624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005536998743593813</v>
+        <v>11.76423559452378</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008811314059897768</v>
+        <v>11.75334794473067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02666226678780248</v>
+        <v>11.73436328839632</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007291593483316205</v>
+        <v>11.65697172171866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003569726530017192</v>
+        <v>11.62827466275195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002814656140159855</v>
+        <v>11.61039482468458</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002516332287516576</v>
+        <v>11.59307699208327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005313571330489708</v>
+        <v>11.56741251819697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001609538836788715</v>
+        <v>11.55972706466859</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008321749710926696</v>
+        <v>12.61573936283994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001007578536160736</v>
+        <v>12.57044704687921</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004363440265109375</v>
+        <v>12.56152804043563</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03181626648256497</v>
+        <v>12.5534583261731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05143672400098609</v>
+        <v>12.39859980830031</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01287451553455554</v>
+        <v>12.31414299485319</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02600891724924281</v>
+        <v>12.27204865334649</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03328988190389737</v>
+        <v>11.9982487501551</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1130083885392708</v>
+        <v>11.96579175490436</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07833339206122503</v>
+        <v>11.82096674266166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03895663835500329</v>
+        <v>11.71692563654896</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01593635133492199</v>
+        <v>11.67188872294566</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002131947896444331</v>
+        <v>11.61920835454322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001316856755195772</v>
+        <v>11.60761913259626</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P_line_loss</t>
+          <t>V_mag_kv</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>P_line_loss</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>P_line_loss</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>P_line_loss</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>P_line_loss</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
+        <v>11.60402821228165</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4793,7 +4737,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Lines</t>
+          <t>Index: Buses</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4805,482 +4749,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06239683256410444</v>
+        <v>7.084194198954893e-33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2637880899230893</v>
+        <v>0.01448136700762664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10135081316065</v>
+        <v>0.09604129634772254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09523630790226889</v>
+        <v>0.1616510048270302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3301796231095722</v>
+        <v>0.228284757455089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06328526335472873</v>
+        <v>0.1338525846492035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01598821996440236</v>
+        <v>-0.0964744678432549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03003481408381248</v>
+        <v>-0.06040367817947077</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02524010332987103</v>
+        <v>-0.1334852241174918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001830645566158751</v>
+        <v>-0.1960148688585326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002913570193996406</v>
+        <v>-0.1887619493907155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02097746467271122</v>
+        <v>-0.1772699184883314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009597815720319147</v>
+        <v>-0.2685875288064523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003177117013386521</v>
+        <v>-0.347268442270288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002055457049543463</v>
+        <v>-0.384951198574921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003359664753066482</v>
+        <v>-0.4082058988017359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000416665292846119</v>
+        <v>-0.4854740802362303</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001535931876617269</v>
+        <v>-0.495063651640502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007498537134953409</v>
+        <v>0.003650851279174789</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001177107623462348</v>
+        <v>-0.0633277167575384</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005769294062929475</v>
+        <v>-0.08268558705380913</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02173970513457135</v>
+        <v>-0.1030331474502787</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04061668261581275</v>
+        <v>0.06507966247283295</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01007402102821686</v>
+        <v>-0.02365423132928228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01324789183954067</v>
+        <v>-0.06735485373261157</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01694949300343751</v>
+        <v>0.1733089003553951</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09963732991433716</v>
+        <v>0.2294623979089178</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06824219656618169</v>
+        <v>0.3124083272650271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01984293796013503</v>
+        <v>0.3903136117937032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.015749903874962</v>
+        <v>0.495584701472571</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00248486938474457</v>
+        <v>0.4111768165884211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002047499862101176</v>
+        <v>0.3881340920485497</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q_line_loss</t>
+          <t>V_ang_deg</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Q_line_loss</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Q_line_loss</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Q_line_loss</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Q_line_loss</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
+        <v>0.3804042078255309</v>
       </c>
     </row>
   </sheetData>
@@ -7304,1918 +7196,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index: Lines</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2103641431919156</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1871300819902728</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1346263394752353</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1278874359497829</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1247684556308066</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05838691325532923</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04761163717420287</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03678205477296932</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03371856449253689</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03063972254971858</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02800862526695442</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02460508556923266</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02118416102172621</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0141893697448952</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01121231588521308</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.008066718633298116</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.00491900302415505</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01808706830621939</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01357981661814124</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.00905632237008566</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.004529616164659354</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.04848187806019905</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.04369561483470551</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.02188521490629715</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0653510380088291</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0624861062714832</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.05964124952258277</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.05698109684405914</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.05058387390441101</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02334883321023601</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.01512853462826719</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.003587826647751651</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>I_line_mag</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index: Buses</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3917673702063921</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.009999993995492206</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.008999990857734525</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.01199999060269049</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.005999990464044838</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.005999990309272368</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.01999999029590368</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.01999999026458201</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.005999990235538781</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.005999990213538513</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.004499990210246782</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.005999990204702228</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.005999990186946933</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.01199999018167012</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.00599999017795553</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.005999990174473586</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.005999990170169369</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.008999990168797913</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.008999993546589712</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.008999992063240108</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.008999991915029832</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.008999991802428914</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.008999990716335022</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.04199999055058998</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.04199999049286268</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.005999990298000343</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.005999990284340014</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.005999990244114656</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.01199999022164742</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.01999999021151791</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.0149999901990931</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.02099999019667473</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P_inj</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.005999990196073747</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index: Buses</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2435137803147196</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.005999995374511555</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.003999990975105316</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.007999990906311594</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.002999990687865429</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.001999990446613406</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.009999990431807678</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.00999999039941352</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.001999990367395511</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.001999990341198371</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.002999990337085413</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.003499990330304902</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.003499990308504862</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.007999990302121318</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.0009999902986312756</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.001999990294848084</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.001999990289867663</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.003999990288095024</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.003999995053158898</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.003999993514551933</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.003999993325059815</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.003999993166001444</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.004999991150348753</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.01999999093453503</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.01999999085367891</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.002499990423310618</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.002499990395006187</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.001999990314860239</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.006999990272794171</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.05999999025340556</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.006999990244230672</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.009999990242333227</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Q_inj</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.003999990241724474</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index: Buses</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78.35347404127842</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P_cost</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -11110,430 +9090,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.62242844486865</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.44399508215827</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.34927851677449</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.25563032017614</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.02267325127227</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>11.97854609700346</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>11.91721891884643</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>11.83785271283624</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11.76423559452378</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>11.75334794473067</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>11.73436328839632</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>11.65697172171866</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>11.62827466275195</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11.61039482468458</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>11.59307699208327</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>11.56741251819697</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>11.55972706466859</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>12.61573936283994</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>12.57044704687921</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12.56152804043563</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>12.5534583261731</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>12.39859980830031</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>12.31414299485319</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>12.27204865334649</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>11.9982487501551</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>11.96579175490436</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>11.82096674266166</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>11.71692563654896</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>11.67188872294566</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>11.61920835454322</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>11.60761913259626</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>V_mag_kv</t>
+          <t>PDem</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>11.60402821228165</v>
+        <v>0.006</v>
       </c>
     </row>
   </sheetData>
@@ -11575,430 +9555,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.084194198954893e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448136700762664</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09604129634772254</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616510048270302</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228284757455089</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1338525846492035</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0964744678432549</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06040367817947077</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1334852241174918</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1960148688585326</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1887619493907155</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1772699184883314</v>
+        <v>0.003500000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2685875288064523</v>
+        <v>0.003500000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.347268442270288</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.384951198574921</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4082058988017359</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4854740802362303</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.495063651640502</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003650851279174789</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0633277167575384</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08268558705380913</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1030331474502787</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06507966247283295</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02365423132928228</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06735485373261157</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1733089003553951</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2294623979089178</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3124083272650271</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3903136117937032</v>
+        <v>0.007000000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.495584701472571</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4111768165884211</v>
+        <v>0.007000000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3881340920485497</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>V_ang_deg</t>
+          <t>QDem</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3804042078255309</v>
+        <v>0.004</v>
       </c>
     </row>
   </sheetData>
@@ -12012,7 +9992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12028,7 +10008,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Buses</t>
+          <t>Index: Lines</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -12040,430 +10020,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.917673702063769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>3.444296147804558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008999999999999999</v>
+        <v>2.362892640668198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.012</v>
+        <v>2.222992306735416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006</v>
+        <v>2.144293506195072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006</v>
+        <v>1.095266133688261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>0.8933517185604528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>0.6885138662409733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006</v>
+        <v>0.6243334424658025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006</v>
+        <v>0.5607726392660801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0045</v>
+        <v>0.5152190372892715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006</v>
+        <v>0.4543380038362746</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006</v>
+        <v>0.3916718752880438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.012</v>
+        <v>0.2709428141230015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006</v>
+        <v>0.2105859396904521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006</v>
+        <v>0.1503045723317077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006</v>
+        <v>0.09005303740126194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.3611372143838656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.2709763250343149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.1801442294307969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.09004355242694133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.9396124681996549</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8464309343880515</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.042</v>
+        <v>0.421287356482078</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.042</v>
+        <v>0.9507789388163956</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006</v>
+        <v>0.8881781441114122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006</v>
+        <v>0.8248492530775559</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006</v>
+        <v>0.7535485117824654</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.012</v>
+        <v>0.6257152703598499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02</v>
+        <v>0.4218197044091215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.015</v>
+        <v>0.2702261672846655</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.021</v>
+        <v>0.06001307052828038</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PDem</t>
+          <t>P_line_flow_sending</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>P_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>P_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>P_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>P_line_flow_sending</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_NLP_Opt_problem_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_NLP_Opt_problem_Variables.xlsx
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137803147285</v>
+        <v>2.435137811827701</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207819564953777</v>
+        <v>2.207819567677234</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.684198075946988</v>
+        <v>1.684198075943684</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.594063085567754</v>
+        <v>1.594063085570312</v>
       </c>
     </row>
     <row r="6">
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.554539547898841</v>
+        <v>1.554539547901221</v>
       </c>
     </row>
     <row r="7">
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5278865199921867</v>
+        <v>0.5278865199928262</v>
       </c>
     </row>
     <row r="8">
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4215580893385873</v>
+        <v>0.4215580893389959</v>
       </c>
     </row>
     <row r="9">
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3199593633480191</v>
+        <v>0.3199593633483477</v>
       </c>
     </row>
     <row r="10">
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2969559782656717</v>
+        <v>0.2969559782658848</v>
       </c>
     </row>
     <row r="11">
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2744320645207665</v>
+        <v>0.2744320645209086</v>
       </c>
     </row>
     <row r="12">
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2442490965932897</v>
+        <v>0.2442490965934141</v>
       </c>
     </row>
     <row r="13">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2089578362708533</v>
+        <v>0.2089578362709599</v>
       </c>
     </row>
     <row r="14">
@@ -932,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1718601867185043</v>
+        <v>0.1718601867185576</v>
       </c>
     </row>
     <row r="15">
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08058288743765019</v>
+        <v>0.08058288743766795</v>
       </c>
     </row>
     <row r="17">
@@ -971,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06037743878422042</v>
+        <v>0.06037743878417601</v>
       </c>
     </row>
     <row r="18">
@@ -984,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04004156941023851</v>
+        <v>0.04004156941020298</v>
       </c>
     </row>
     <row r="19">
@@ -997,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1610786011917753</v>
+        <v>0.161078607074856</v>
       </c>
     </row>
     <row r="20">
@@ -1010,7 +1010,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1209250574725385</v>
+        <v>0.1209250581677956</v>
       </c>
     </row>
     <row r="21">
@@ -1023,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08017526861348045</v>
+        <v>0.08017526930728991</v>
       </c>
     </row>
     <row r="22">
@@ -1036,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0400576246006068</v>
+        <v>0.04005762529402546</v>
       </c>
     </row>
     <row r="23">
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4572427702634485</v>
+        <v>0.4572427695308257</v>
       </c>
     </row>
     <row r="24">
@@ -1062,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4050688882465181</v>
+        <v>0.4050688882466957</v>
       </c>
     </row>
     <row r="25">
@@ -1075,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2010073106396071</v>
+        <v>0.2010073106396248</v>
       </c>
     </row>
     <row r="26">
@@ -1088,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9736351611294936</v>
+        <v>0.9736351611302752</v>
       </c>
     </row>
     <row r="27">
@@ -1101,7 +1101,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9473104677124411</v>
+        <v>0.9473104677130806</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9206156144619815</v>
+        <v>0.9206156144626298</v>
       </c>
     </row>
     <row r="29">
@@ -1127,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8906519783219835</v>
+        <v>0.8906519783222855</v>
       </c>
     </row>
     <row r="30">
@@ -1140,7 +1140,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8138278559374612</v>
+        <v>0.8138278559374967</v>
       </c>
     </row>
     <row r="31">
@@ -1153,7 +1153,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2118436596074069</v>
+        <v>0.2118436596073714</v>
       </c>
     </row>
     <row r="32">
@@ -1166,7 +1166,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1402687667777158</v>
+        <v>0.1402687667775737</v>
       </c>
     </row>
     <row r="33">
@@ -1179,7 +1179,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04002037741585696</v>
+        <v>0.0400203774157859</v>
       </c>
     </row>
     <row r="34">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.905433302143809</v>
+        <v>-3.905433328811625</v>
       </c>
     </row>
     <row r="3">
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.392505017445302</v>
+        <v>-3.392505015968796</v>
       </c>
     </row>
     <row r="4">
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.342992212762245</v>
+        <v>-2.342992211303163</v>
       </c>
     </row>
     <row r="5">
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.204293410835514</v>
+        <v>-2.204293410838299</v>
       </c>
     </row>
     <row r="6">
@@ -1345,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.106044975597228</v>
+        <v>-2.10604497559867</v>
       </c>
     </row>
     <row r="7">
@@ -1358,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.093351621519516</v>
+        <v>-1.093351621520223</v>
       </c>
     </row>
     <row r="8">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8885137688868311</v>
+        <v>-0.8885137688873876</v>
       </c>
     </row>
     <row r="9">
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6843333448212323</v>
+        <v>-0.6843333448216594</v>
       </c>
     </row>
     <row r="10">
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6207725414014413</v>
+        <v>-0.6207725414017607</v>
       </c>
     </row>
     <row r="11">
@@ -1410,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5602189393917207</v>
+        <v>-0.5602189393918567</v>
       </c>
     </row>
     <row r="12">
@@ -1423,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5143379058832818</v>
+        <v>-0.5143379058835567</v>
       </c>
     </row>
     <row r="13">
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4516717771574943</v>
+        <v>-0.4516717771575604</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3909427159397122</v>
+        <v>-0.3909427159397661</v>
       </c>
     </row>
     <row r="15">
@@ -1462,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2705858414699998</v>
+        <v>-0.2705858414700379</v>
       </c>
     </row>
     <row r="16">
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2103044740764361</v>
+        <v>-0.2103044740764465</v>
       </c>
     </row>
     <row r="17">
@@ -1488,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1500529391029561</v>
+        <v>-0.1500529391029256</v>
       </c>
     </row>
     <row r="18">
@@ -1501,7 +1501,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08999990168795705</v>
+        <v>-0.08999990168796942</v>
       </c>
     </row>
     <row r="19">
@@ -1514,7 +1514,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3609762605001868</v>
+        <v>-0.3609762605030662</v>
       </c>
     </row>
     <row r="20">
@@ -1527,7 +1527,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2701441500632222</v>
+        <v>-0.2701441500644723</v>
       </c>
     </row>
     <row r="21">
@@ -1540,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1800434715771808</v>
+        <v>-0.1800434715781671</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08999991802429023</v>
+        <v>-0.08999991802430905</v>
       </c>
     </row>
     <row r="23">
@@ -1566,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9364308415513984</v>
+        <v>-0.9364308415515897</v>
       </c>
     </row>
     <row r="24">
@@ -1579,7 +1579,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8412872619879529</v>
+        <v>-0.8412872619879961</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4199999049286225</v>
+        <v>-0.4199999049286365</v>
       </c>
     </row>
     <row r="26">
@@ -1605,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9481780470914714</v>
+        <v>-0.9481780470919621</v>
       </c>
     </row>
     <row r="27">
@@ -1618,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8848491559210224</v>
+        <v>-0.8848491559211156</v>
       </c>
     </row>
     <row r="28">
@@ -1631,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8135484142236288</v>
+        <v>-0.8135484142235044</v>
       </c>
     </row>
     <row r="29">
@@ -1644,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7457151725763429</v>
+        <v>-0.7457151725759603</v>
       </c>
     </row>
     <row r="30">
@@ -1657,7 +1657,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6218196065243495</v>
+        <v>-0.6218196065238702</v>
       </c>
     </row>
     <row r="31">
@@ -1670,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4202260692756293</v>
+        <v>-0.4202260692751781</v>
       </c>
     </row>
     <row r="32">
@@ -1683,7 +1683,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2700129724950211</v>
+        <v>-0.2700129724945654</v>
       </c>
     </row>
     <row r="33">
@@ -1696,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.05999990196072842</v>
+        <v>-0.05999990196071475</v>
       </c>
     </row>
     <row r="34">
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.428898119890874</v>
+        <v>-2.42889812849711</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.181440755961468</v>
+        <v>-2.181440758680999</v>
       </c>
     </row>
     <row r="4">
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.674062994630923</v>
+        <v>-1.674062994635612</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.584539454777527</v>
+        <v>-1.584539454779748</v>
       </c>
     </row>
     <row r="6">
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.521521585587884</v>
+        <v>-1.52152158558911</v>
       </c>
     </row>
     <row r="7">
@@ -1875,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5215579936567138</v>
+        <v>-0.5215579936571046</v>
       </c>
     </row>
     <row r="8">
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4199592673421471</v>
+        <v>-0.4199592673424934</v>
       </c>
     </row>
     <row r="9">
@@ -1901,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3169558819396379</v>
+        <v>-0.3169558819398688</v>
       </c>
     </row>
     <row r="10">
@@ -1914,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2944319679326846</v>
+        <v>-0.2944319679328089</v>
       </c>
     </row>
     <row r="11">
@@ -1927,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2742489999641506</v>
+        <v>-0.2742489999642217</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2439577395738901</v>
+        <v>-0.2439577395740322</v>
       </c>
     </row>
     <row r="13">
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2068600898035822</v>
+        <v>-0.2068600898035999</v>
       </c>
     </row>
     <row r="14">
@@ -1979,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09058279042394091</v>
+        <v>-0.09058279042392314</v>
       </c>
     </row>
     <row r="16">
@@ -1992,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08037734173269584</v>
+        <v>-0.08037734173267808</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06004147230891377</v>
+        <v>-0.06004147230886048</v>
       </c>
     </row>
     <row r="18">
@@ -2018,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0399999028809539</v>
+        <v>-0.03999990288091837</v>
       </c>
     </row>
     <row r="19">
@@ -2031,7 +2031,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1609250080041136</v>
+        <v>-0.1609250138852047</v>
       </c>
     </row>
     <row r="20">
@@ -2044,7 +2044,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1201752037590431</v>
+        <v>-0.1201752044528082</v>
       </c>
     </row>
     <row r="21">
@@ -2057,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.08005755785113422</v>
+        <v>-0.08005755854455288</v>
       </c>
     </row>
     <row r="22">
@@ -2070,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03999993165997751</v>
+        <v>-0.03999993235307642</v>
       </c>
     </row>
     <row r="23">
@@ -2083,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4550687997499914</v>
+        <v>-0.4550687990185764</v>
       </c>
     </row>
     <row r="24">
@@ -2096,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4010072199849368</v>
+        <v>-0.4010072199849724</v>
       </c>
     </row>
     <row r="25">
@@ -2109,7 +2109,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1999999085367854</v>
+        <v>-0.1999999085367499</v>
       </c>
     </row>
     <row r="26">
@@ -2122,7 +2122,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9723103719455395</v>
+        <v>-0.9723103719462856</v>
       </c>
     </row>
     <row r="27">
@@ -2135,7 +2135,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9456155184120973</v>
+        <v>-0.9456155184127013</v>
       </c>
     </row>
     <row r="28">
@@ -2148,7 +2148,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9106518814705478</v>
+        <v>-0.9106518814708764</v>
       </c>
     </row>
     <row r="29">
@@ -2161,7 +2161,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8838277586653653</v>
+        <v>-0.8838277586654719</v>
       </c>
     </row>
     <row r="30">
@@ -2174,7 +2174,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8118435621414477</v>
+        <v>-0.8118435621414299</v>
       </c>
     </row>
     <row r="31">
@@ -2187,7 +2187,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2102686692199107</v>
+        <v>-0.2102686692198397</v>
       </c>
     </row>
     <row r="32">
@@ -2200,7 +2200,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1400202798392414</v>
+        <v>-0.1400202798391348</v>
       </c>
     </row>
     <row r="33">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1224039991996051</v>
+        <v>0.1224040006547966</v>
       </c>
     </row>
     <row r="3">
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5179113035925553</v>
+        <v>0.5179113036696492</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1990042790595226</v>
+        <v>0.1990042789024926</v>
       </c>
     </row>
     <row r="5">
@@ -2366,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1869889589990237</v>
+        <v>0.1869889590043528</v>
       </c>
     </row>
     <row r="6">
@@ -2379,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3824853059784417</v>
+        <v>0.3824853059914091</v>
       </c>
     </row>
     <row r="7">
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0191451216874583</v>
+        <v>0.01914512168816884</v>
       </c>
     </row>
     <row r="8">
@@ -2405,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04837949673621722</v>
+        <v>0.04837949673799358</v>
       </c>
     </row>
     <row r="9">
@@ -2418,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04180521419741012</v>
+        <v>0.04180521419883121</v>
       </c>
     </row>
     <row r="10">
@@ -2431,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03560901064361133</v>
+        <v>0.03560901064521005</v>
       </c>
     </row>
     <row r="11">
@@ -2444,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005536998743593813</v>
+        <v>0.005536998745014898</v>
       </c>
     </row>
     <row r="12">
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02666226678780248</v>
+        <v>0.02666226678869066</v>
       </c>
     </row>
     <row r="14">
@@ -2496,7 +2496,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003569726530017192</v>
+        <v>0.003569726530372463</v>
       </c>
     </row>
     <row r="16">
@@ -2509,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002814656140159855</v>
+        <v>0.00281465614033749</v>
       </c>
     </row>
     <row r="17">
@@ -2522,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002516332287516576</v>
+        <v>0.002516332287649803</v>
       </c>
     </row>
     <row r="18">
@@ -2535,7 +2535,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005313571330489708</v>
+        <v>0.0005313571328713351</v>
       </c>
     </row>
     <row r="19">
@@ -2548,7 +2548,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001609538836788715</v>
+        <v>0.001609538855262826</v>
       </c>
     </row>
     <row r="20">
@@ -2561,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008321749710926696</v>
+        <v>0.008321749727535632</v>
       </c>
     </row>
     <row r="21">
@@ -2574,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001007578536160736</v>
+        <v>0.001007578538647635</v>
       </c>
     </row>
     <row r="22">
@@ -2587,7 +2587,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004363440265109375</v>
+        <v>0.0004363440286425657</v>
       </c>
     </row>
     <row r="23">
@@ -2600,7 +2600,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03181626648256497</v>
+        <v>0.03181626646444613</v>
       </c>
     </row>
     <row r="24">
@@ -2613,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05143672400098609</v>
+        <v>0.05143672400258481</v>
       </c>
     </row>
     <row r="25">
@@ -2652,7 +2652,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03328988190389737</v>
+        <v>0.03328988190745008</v>
       </c>
     </row>
     <row r="28">
@@ -2665,7 +2665,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1130083885392708</v>
+        <v>0.1130083885430899</v>
       </c>
     </row>
     <row r="29">
@@ -2678,7 +2678,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07833339206122503</v>
+        <v>0.0783333920640672</v>
       </c>
     </row>
     <row r="30">
@@ -2691,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03895663835500329</v>
+        <v>0.03895663835642438</v>
       </c>
     </row>
     <row r="31">
@@ -2704,7 +2704,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01593635133492199</v>
+        <v>0.0159363513354549</v>
       </c>
     </row>
     <row r="32">
@@ -2730,7 +2730,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001316856755195772</v>
+        <v>0.0001316856756972129</v>
       </c>
     </row>
     <row r="34">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06239683256410444</v>
+        <v>0.06239683330591106</v>
       </c>
     </row>
     <row r="3">
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2637880899230893</v>
+        <v>0.2637880899623468</v>
       </c>
     </row>
     <row r="4">
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10135081316065</v>
+        <v>0.1013508130807139</v>
       </c>
     </row>
     <row r="5">
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09523630790226889</v>
+        <v>0.09523630790564397</v>
       </c>
     </row>
     <row r="6">
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3301796231095722</v>
+        <v>0.3301796231211185</v>
       </c>
     </row>
     <row r="7">
@@ -2909,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06328526335472873</v>
+        <v>0.06328526335721563</v>
       </c>
     </row>
     <row r="8">
@@ -2922,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01598821996440236</v>
+        <v>0.01598821996502409</v>
       </c>
     </row>
     <row r="9">
@@ -2935,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03003481408381248</v>
+        <v>0.03003481408478947</v>
       </c>
     </row>
     <row r="10">
@@ -2948,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02524010332987103</v>
+        <v>0.02524010333075921</v>
       </c>
     </row>
     <row r="11">
@@ -2961,7 +2961,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001830645566158751</v>
+        <v>0.001830645566869293</v>
       </c>
     </row>
     <row r="12">
@@ -2974,7 +2974,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002913570193996406</v>
+        <v>0.002913570193818771</v>
       </c>
     </row>
     <row r="13">
@@ -2987,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02097746467271122</v>
+        <v>0.0209774646735994</v>
       </c>
     </row>
     <row r="14">
@@ -3000,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009597815720319147</v>
+        <v>0.009597815720852054</v>
       </c>
     </row>
     <row r="15">
@@ -3013,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003177117013386521</v>
+        <v>0.003177117013564157</v>
       </c>
     </row>
     <row r="16">
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002055457049543463</v>
+        <v>0.002055457049898735</v>
       </c>
     </row>
     <row r="17">
@@ -3039,7 +3039,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003359664753066482</v>
+        <v>0.0033596647531553</v>
       </c>
     </row>
     <row r="18">
@@ -3065,7 +3065,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001535931876617269</v>
+        <v>0.001535931896512466</v>
       </c>
     </row>
     <row r="20">
@@ -3078,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007498537134953409</v>
+        <v>0.007498537149874807</v>
       </c>
     </row>
     <row r="21">
@@ -3091,7 +3091,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001177107623462348</v>
+        <v>0.001177107627370333</v>
       </c>
     </row>
     <row r="22">
@@ -3104,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005769294062929475</v>
+        <v>0.0005769294094903898</v>
       </c>
     </row>
     <row r="23">
@@ -3117,7 +3117,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02173970513457135</v>
+        <v>0.02173970512249213</v>
       </c>
     </row>
     <row r="24">
@@ -3130,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04061668261581275</v>
+        <v>0.04061668261723383</v>
       </c>
     </row>
     <row r="25">
@@ -3143,7 +3143,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01007402102821686</v>
+        <v>0.01007402102874977</v>
       </c>
     </row>
     <row r="26">
@@ -3156,7 +3156,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01324789183954067</v>
+        <v>0.01324789183989594</v>
       </c>
     </row>
     <row r="27">
@@ -3169,7 +3169,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01694949300343751</v>
+        <v>0.01694949300379278</v>
       </c>
     </row>
     <row r="28">
@@ -3182,7 +3182,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09963732991433716</v>
+        <v>0.0996373299175346</v>
       </c>
     </row>
     <row r="29">
@@ -3195,7 +3195,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06824219656618169</v>
+        <v>0.06824219656813568</v>
       </c>
     </row>
     <row r="30">
@@ -3208,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01984293796013503</v>
+        <v>0.01984293796066794</v>
       </c>
     </row>
     <row r="31">
@@ -3221,7 +3221,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.015749903874962</v>
+        <v>0.01574990387531727</v>
       </c>
     </row>
     <row r="32">
@@ -3234,7 +3234,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00248486938474457</v>
+        <v>0.002484869384389299</v>
       </c>
     </row>
     <row r="33">
@@ -3247,7 +3247,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002047499862101176</v>
+        <v>0.0002047499854995749</v>
       </c>
     </row>
     <row r="34">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673702063921</v>
+        <v>3.917673728876874</v>
       </c>
     </row>
     <row r="3">
@@ -3374,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.004507793661425e-08</v>
+        <v>3.19131411900984e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142265474992319e-08</v>
+        <v>9.142265474932403e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.397309506398162e-08</v>
+        <v>9.543548624125041e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.535955161496049e-08</v>
+        <v>9.53595516164084e-08</v>
       </c>
     </row>
     <row r="7">
@@ -3426,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.690727631519336e-08</v>
+        <v>9.69072763159443e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3439,7 +3439,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.704096320966337e-08</v>
+        <v>9.704096321037281e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3452,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.735417988226576e-08</v>
+        <v>9.735417988284584e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3465,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.76446122002574e-08</v>
+        <v>9.764461220073586e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3478,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.786461487738024e-08</v>
+        <v>9.786461487778797e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3491,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.789753216948003e-08</v>
+        <v>9.789753216987735e-08</v>
       </c>
     </row>
     <row r="13">
@@ -3504,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.795297772224869e-08</v>
+        <v>9.795297772262887e-08</v>
       </c>
     </row>
     <row r="14">
@@ -3517,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.813053066750141e-08</v>
+        <v>9.813053066783056e-08</v>
       </c>
     </row>
     <row r="15">
@@ -3530,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.818329879737258e-08</v>
+        <v>9.818329879768805e-08</v>
       </c>
     </row>
     <row r="16">
@@ -3543,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.822044470376766e-08</v>
+        <v>9.822044470407311e-08</v>
       </c>
     </row>
     <row r="17">
@@ -3556,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.825526413982649e-08</v>
+        <v>9.825526414012279e-08</v>
       </c>
     </row>
     <row r="18">
@@ -3569,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.829830630684931e-08</v>
+        <v>9.829830630713478e-08</v>
       </c>
     </row>
     <row r="19">
@@ -3582,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.831202087200317e-08</v>
+        <v>9.831202087228515e-08</v>
       </c>
     </row>
     <row r="20">
@@ -3595,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.453410287784528e-08</v>
+        <v>6.453410302760673e-08</v>
       </c>
     </row>
     <row r="21">
@@ -3608,7 +3608,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>7.936759890964628e-08</v>
+        <v>7.936759894194579e-08</v>
       </c>
     </row>
     <row r="22">
@@ -3621,7 +3621,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>8.084970166734109e-08</v>
+        <v>8.084906786582042e-08</v>
       </c>
     </row>
     <row r="23">
@@ -3634,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.197571085531273e-08</v>
+        <v>8.197571089234871e-08</v>
       </c>
     </row>
     <row r="24">
@@ -3647,7 +3647,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9.283664977902124e-08</v>
+        <v>9.283666481741113e-08</v>
       </c>
     </row>
     <row r="25">
@@ -3660,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.449410021305022e-08</v>
+        <v>9.449410021602442e-08</v>
       </c>
     </row>
     <row r="26">
@@ -3673,7 +3673,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.507137322123574e-08</v>
+        <v>9.50713732236587e-08</v>
       </c>
     </row>
     <row r="27">
@@ -3686,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.701999656461075e-08</v>
+        <v>9.701999656531272e-08</v>
       </c>
     </row>
     <row r="28">
@@ -3699,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.715659986019767e-08</v>
+        <v>9.715659986084673e-08</v>
       </c>
     </row>
     <row r="29">
@@ -3712,7 +3712,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.755885343950258e-08</v>
+        <v>9.755885344000798e-08</v>
       </c>
     </row>
     <row r="30">
@@ -3725,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.778352581184269e-08</v>
+        <v>9.77835258122745e-08</v>
       </c>
     </row>
     <row r="31">
@@ -3738,7 +3738,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.788482089876661e-08</v>
+        <v>9.788482089916256e-08</v>
       </c>
     </row>
     <row r="32">
@@ -3751,7 +3751,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800906902478989e-08</v>
+        <v>9.800906902514491e-08</v>
       </c>
     </row>
     <row r="33">
@@ -3764,7 +3764,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.80332527006358e-08</v>
+        <v>9.803370557157041e-08</v>
       </c>
     </row>
     <row r="34">
@@ -3777,7 +3777,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.803926253655929e-08</v>
+        <v>9.80392625369146e-08</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137803147196</v>
+        <v>2.435137811827705</v>
       </c>
     </row>
     <row r="3">
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.625488445045842e-08</v>
+        <v>4.625488449909408e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3852,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.02489468442344e-08</v>
+        <v>8.679343179892709e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3865,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.093688406074668e-08</v>
+        <v>9.093467988983527e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3878,7 +3878,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312134571178393e-08</v>
+        <v>9.312134578353692e-08</v>
       </c>
     </row>
     <row r="7">
@@ -3891,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.553386593824635e-08</v>
+        <v>9.553386594073173e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3904,7 +3904,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.568192322083408e-08</v>
+        <v>9.568192319726992e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3917,7 +3917,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.600586480542698e-08</v>
+        <v>9.600586480744906e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3930,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.632604488912212e-08</v>
+        <v>9.632604489085409e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3943,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.65880162914608e-08</v>
+        <v>9.658801629297252e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3956,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.662914587512272e-08</v>
+        <v>9.662914587660078e-08</v>
       </c>
     </row>
     <row r="13">
@@ -3969,7 +3969,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.669695098800127e-08</v>
+        <v>9.669695098942468e-08</v>
       </c>
     </row>
     <row r="14">
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.69149513865033e-08</v>
+        <v>9.691495138776062e-08</v>
       </c>
     </row>
     <row r="15">
@@ -3995,7 +3995,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.697878681637269e-08</v>
+        <v>9.697878681758396e-08</v>
       </c>
     </row>
     <row r="16">
@@ -4008,7 +4008,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.701368724497215e-08</v>
+        <v>9.701368724615844e-08</v>
       </c>
     </row>
     <row r="17">
@@ -4021,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.705151915488465e-08</v>
+        <v>9.70515191560436e-08</v>
       </c>
     </row>
     <row r="18">
@@ -4034,7 +4034,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.710132337626641e-08</v>
+        <v>9.710132337739115e-08</v>
       </c>
     </row>
     <row r="19">
@@ -4047,7 +4047,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.71190497638014e-08</v>
+        <v>9.711904976491358e-08</v>
       </c>
     </row>
     <row r="20">
@@ -4060,7 +4060,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.946841101676622e-08</v>
+        <v>4.428254497006623e-08</v>
       </c>
     </row>
     <row r="21">
@@ -4073,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.485448067203413e-08</v>
+        <v>6.485447463354646e-08</v>
       </c>
     </row>
     <row r="22">
@@ -4086,7 +4086,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.67494018435757e-08</v>
+        <v>6.674940201288336e-08</v>
       </c>
     </row>
     <row r="23">
@@ -4099,7 +4099,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.833998555975447e-08</v>
+        <v>6.764693643786181e-08</v>
       </c>
     </row>
     <row r="24">
@@ -4112,7 +4112,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8.849651247275866e-08</v>
+        <v>8.922809985935824e-08</v>
       </c>
     </row>
     <row r="25">
@@ -4125,7 +4125,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.065464970136255e-08</v>
+        <v>9.065464958963341e-08</v>
       </c>
     </row>
     <row r="26">
@@ -4138,7 +4138,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.146321092175854e-08</v>
+        <v>9.14632297656978e-08</v>
       </c>
     </row>
     <row r="27">
@@ -4151,7 +4151,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.576689382622885e-08</v>
+        <v>9.57668938284762e-08</v>
       </c>
     </row>
     <row r="28">
@@ -4164,7 +4164,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.604993813130988e-08</v>
+        <v>9.60499380469983e-08</v>
       </c>
     </row>
     <row r="29">
@@ -4177,7 +4177,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.685139761025742e-08</v>
+        <v>9.685139761156072e-08</v>
       </c>
     </row>
     <row r="30">
@@ -4190,7 +4190,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.727205829585891e-08</v>
+        <v>9.727205829686526e-08</v>
       </c>
     </row>
     <row r="31">
@@ -4203,7 +4203,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.746594436971852e-08</v>
+        <v>9.746594437059909e-08</v>
       </c>
     </row>
     <row r="32">
@@ -4216,7 +4216,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.75576932869804e-08</v>
+        <v>9.75576932878056e-08</v>
       </c>
     </row>
     <row r="33">
@@ -4229,7 +4229,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.757666773277082e-08</v>
+        <v>9.7576667733586e-08</v>
       </c>
     </row>
     <row r="34">
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.758275526275374e-08</v>
+        <v>9.758275526356418e-08</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.62242844486865</v>
+        <v>12.62242844464114</v>
       </c>
     </row>
     <row r="4">
@@ -4317,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.44399508215827</v>
+        <v>12.44399508193093</v>
       </c>
     </row>
     <row r="5">
@@ -4330,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.34927851677449</v>
+        <v>12.34927851658887</v>
       </c>
     </row>
     <row r="6">
@@ -4343,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.25563032017614</v>
+        <v>12.25563031998897</v>
       </c>
     </row>
     <row r="7">
@@ -4356,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.02267325127227</v>
+        <v>12.02267325108122</v>
       </c>
     </row>
     <row r="8">
@@ -4369,7 +4369,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>11.97854609700346</v>
+        <v>11.97854609681167</v>
       </c>
     </row>
     <row r="9">
@@ -4382,7 +4382,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>11.91721891884643</v>
+        <v>11.9172189186536</v>
       </c>
     </row>
     <row r="10">
@@ -4395,7 +4395,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>11.83785271283624</v>
+        <v>11.83785271264206</v>
       </c>
     </row>
     <row r="11">
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11.76423559452378</v>
+        <v>11.76423559432834</v>
       </c>
     </row>
     <row r="12">
@@ -4421,7 +4421,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>11.75334794473067</v>
+        <v>11.75334794453504</v>
       </c>
     </row>
     <row r="13">
@@ -4434,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>11.73436328839632</v>
+        <v>11.73436328820037</v>
       </c>
     </row>
     <row r="14">
@@ -4447,7 +4447,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>11.65697172171866</v>
+        <v>11.65697172152138</v>
       </c>
     </row>
     <row r="15">
@@ -4460,7 +4460,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>11.62827466275195</v>
+        <v>11.62827466255418</v>
       </c>
     </row>
     <row r="16">
@@ -4473,7 +4473,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11.61039482468458</v>
+        <v>11.61039482448651</v>
       </c>
     </row>
     <row r="17">
@@ -4486,7 +4486,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>11.59307699208327</v>
+        <v>11.5930769918849</v>
       </c>
     </row>
     <row r="18">
@@ -4499,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>11.56741251819697</v>
+        <v>11.56741251799817</v>
       </c>
     </row>
     <row r="19">
@@ -4512,7 +4512,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>11.55972706466859</v>
+        <v>11.55972706446966</v>
       </c>
     </row>
     <row r="20">
@@ -4525,7 +4525,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>12.61573936283994</v>
+        <v>12.61573936253929</v>
       </c>
     </row>
     <row r="21">
@@ -4538,7 +4538,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>12.57044704687921</v>
+        <v>12.57044704650234</v>
       </c>
     </row>
     <row r="22">
@@ -4551,7 +4551,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12.56152804043563</v>
+        <v>12.56152804003205</v>
       </c>
     </row>
     <row r="23">
@@ -4564,7 +4564,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>12.5534583261731</v>
+        <v>12.55345832571749</v>
       </c>
     </row>
     <row r="24">
@@ -4577,7 +4577,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>12.39859980830031</v>
+        <v>12.39859980809036</v>
       </c>
     </row>
     <row r="25">
@@ -4590,7 +4590,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>12.31414299485319</v>
+        <v>12.31414299464179</v>
       </c>
     </row>
     <row r="26">
@@ -4603,7 +4603,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>12.27204865334649</v>
+        <v>12.27204865313436</v>
       </c>
     </row>
     <row r="27">
@@ -4616,7 +4616,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>11.9982487501551</v>
+        <v>11.99824874996365</v>
       </c>
     </row>
     <row r="28">
@@ -4629,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>11.96579175490436</v>
+        <v>11.96579175471236</v>
       </c>
     </row>
     <row r="29">
@@ -4642,7 +4642,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>11.82096674266166</v>
+        <v>11.82096674246727</v>
       </c>
     </row>
     <row r="30">
@@ -4655,7 +4655,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>11.71692563654896</v>
+        <v>11.71692563635285</v>
       </c>
     </row>
     <row r="31">
@@ -4668,7 +4668,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>11.67188872294566</v>
+        <v>11.67188872274881</v>
       </c>
     </row>
     <row r="32">
@@ -4681,7 +4681,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>11.61920835454322</v>
+        <v>11.61920835434552</v>
       </c>
     </row>
     <row r="33">
@@ -4694,7 +4694,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>11.60761913259626</v>
+        <v>11.60761913239838</v>
       </c>
     </row>
     <row r="34">
@@ -4707,7 +4707,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>11.60402821228165</v>
+        <v>11.60402821208371</v>
       </c>
     </row>
   </sheetData>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.084194198954893e-33</v>
+        <v>1.398937650713571e-33</v>
       </c>
     </row>
     <row r="3">
@@ -4769,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448136700762664</v>
+        <v>0.01448136684299436</v>
       </c>
     </row>
     <row r="4">
@@ -4782,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09604129634772254</v>
+        <v>0.09604129681034847</v>
       </c>
     </row>
     <row r="5">
@@ -4795,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616510048270302</v>
+        <v>0.1616510053938786</v>
       </c>
     </row>
     <row r="6">
@@ -4808,7 +4808,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228284757455089</v>
+        <v>0.2282847580240785</v>
       </c>
     </row>
     <row r="7">
@@ -4821,7 +4821,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1338525846492035</v>
+        <v>0.133852585215248</v>
       </c>
     </row>
     <row r="8">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0964744678432549</v>
+        <v>-0.09647446728470545</v>
       </c>
     </row>
     <row r="9">
@@ -4847,7 +4847,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06040367817947077</v>
+        <v>-0.06040367761971464</v>
       </c>
     </row>
     <row r="10">
@@ -4860,7 +4860,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1334852241174918</v>
+        <v>-0.133485223560149</v>
       </c>
     </row>
     <row r="11">
@@ -4873,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1960148688585326</v>
+        <v>-0.1960148683033026</v>
       </c>
     </row>
     <row r="12">
@@ -4886,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1887619493907155</v>
+        <v>-0.1887619488352426</v>
       </c>
     </row>
     <row r="13">
@@ -4899,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1772699184883314</v>
+        <v>-0.1772699179324704</v>
       </c>
     </row>
     <row r="14">
@@ -4912,7 +4912,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2685875288064523</v>
+        <v>-0.2685875282536778</v>
       </c>
     </row>
     <row r="15">
@@ -4925,7 +4925,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.347268442270288</v>
+        <v>-0.347268441720192</v>
       </c>
     </row>
     <row r="16">
@@ -4938,7 +4938,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.384951198574921</v>
+        <v>-0.384951198026119</v>
       </c>
     </row>
     <row r="17">
@@ -4951,7 +4951,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4082058988017359</v>
+        <v>-0.4082058982537354</v>
       </c>
     </row>
     <row r="18">
@@ -4964,7 +4964,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4854740802362303</v>
+        <v>-0.4854740796908858</v>
       </c>
     </row>
     <row r="19">
@@ -4977,7 +4977,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.495063651640502</v>
+        <v>-0.4950636510954952</v>
       </c>
     </row>
     <row r="20">
@@ -4990,7 +4990,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003650851279174789</v>
+        <v>0.00365085146096342</v>
       </c>
     </row>
     <row r="21">
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0633277167575384</v>
+        <v>-0.06332771620293719</v>
       </c>
     </row>
     <row r="22">
@@ -5016,7 +5016,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08268558705380913</v>
+        <v>-0.08268558639753619</v>
       </c>
     </row>
     <row r="23">
@@ -5029,7 +5029,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1030331474502787</v>
+        <v>-0.1030331466168753</v>
       </c>
     </row>
     <row r="24">
@@ -5042,7 +5042,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06507966247283295</v>
+        <v>0.06507966281179672</v>
       </c>
     </row>
     <row r="25">
@@ -5055,7 +5055,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02365423132928228</v>
+        <v>-0.02365423099333748</v>
       </c>
     </row>
     <row r="26">
@@ -5068,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06735485373261157</v>
+        <v>-0.06735485339816975</v>
       </c>
     </row>
     <row r="27">
@@ -5081,7 +5081,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1733089003553951</v>
+        <v>0.17330890092274</v>
       </c>
     </row>
     <row r="28">
@@ -5094,7 +5094,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2294623979089178</v>
+        <v>0.2294623984781134</v>
       </c>
     </row>
     <row r="29">
@@ -5107,7 +5107,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3124083272650271</v>
+        <v>0.3124083278371018</v>
       </c>
     </row>
     <row r="30">
@@ -5120,7 +5120,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3903136117937032</v>
+        <v>0.3903136123685005</v>
       </c>
     </row>
     <row r="31">
@@ -5133,7 +5133,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.495584701472571</v>
+        <v>0.4955847020509522</v>
       </c>
     </row>
     <row r="32">
@@ -5146,7 +5146,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4111768165884211</v>
+        <v>0.4111768171640946</v>
       </c>
     </row>
     <row r="33">
@@ -5159,7 +5159,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3881340920485497</v>
+        <v>0.3881340926234936</v>
       </c>
     </row>
     <row r="34">
@@ -5172,7 +5172,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3804042078255309</v>
+        <v>0.3804042084002042</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3917673702063769</v>
+        <v>0.3917673728877104</v>
       </c>
     </row>
     <row r="3">
@@ -5234,7 +5234,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3455107911611243</v>
+        <v>0.3455107910194637</v>
       </c>
     </row>
     <row r="4">
@@ -5247,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2406776861006144</v>
+        <v>0.2406776859563447</v>
       </c>
     </row>
     <row r="5">
@@ -5260,7 +5260,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2283526728598645</v>
+        <v>0.2283526728652485</v>
       </c>
     </row>
     <row r="6">
@@ -5273,7 +5273,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2221424170026709</v>
+        <v>0.2221424170079334</v>
       </c>
     </row>
     <row r="7">
@@ -5286,7 +5286,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1154622089778665</v>
+        <v>0.1154622089803295</v>
       </c>
     </row>
     <row r="8">
@@ -5299,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09434225437271902</v>
+        <v>0.09434225437474866</v>
       </c>
     </row>
     <row r="9">
@@ -5312,7 +5312,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07310690821124718</v>
+        <v>0.07310690821282584</v>
       </c>
     </row>
     <row r="10">
@@ -5325,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06669521489356871</v>
+        <v>0.06669521489502286</v>
       </c>
     </row>
     <row r="11">
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06024576824731515</v>
+        <v>0.06024576824862396</v>
       </c>
     </row>
     <row r="12">
@@ -5351,7 +5351,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05540932147382823</v>
+        <v>0.05540932147503326</v>
       </c>
     </row>
     <row r="13">
@@ -5364,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04894775057167379</v>
+        <v>0.04894775057272881</v>
       </c>
     </row>
     <row r="14">
@@ -5377,7 +5377,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04244937940851118</v>
+        <v>0.04244937940941329</v>
       </c>
     </row>
     <row r="15">
@@ -5390,7 +5390,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02943771272926614</v>
+        <v>0.02943771272987171</v>
       </c>
     </row>
     <row r="16">
@@ -5403,7 +5403,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02290278385493565</v>
+        <v>0.02290278385541461</v>
       </c>
     </row>
     <row r="17">
@@ -5416,7 +5416,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01636633481990462</v>
+        <v>0.01636633482024667</v>
       </c>
     </row>
     <row r="18">
@@ -5429,7 +5429,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009818404337633424</v>
+        <v>0.009818404337845921</v>
       </c>
     </row>
     <row r="19">
@@ -5442,7 +5442,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03622529867948232</v>
+        <v>0.03622529868071757</v>
       </c>
     </row>
     <row r="20">
@@ -5455,7 +5455,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02719347410412038</v>
+        <v>0.02719347410510369</v>
       </c>
     </row>
     <row r="21">
@@ -5468,7 +5468,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01813382345161594</v>
+        <v>0.01813382345229196</v>
       </c>
     </row>
     <row r="22">
@@ -5481,7 +5481,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.009069106294333867</v>
+        <v>0.009069106294598891</v>
       </c>
     </row>
     <row r="23">
@@ -5494,7 +5494,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09567008242702607</v>
+        <v>0.09567008242884904</v>
       </c>
     </row>
     <row r="24">
@@ -5507,7 +5507,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08647455146619652</v>
+        <v>0.08647455146792626</v>
       </c>
     </row>
     <row r="25">
@@ -5520,7 +5520,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04330343487500979</v>
+        <v>0.04330343487587952</v>
       </c>
     </row>
     <row r="26">
@@ -5533,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1003572530638294</v>
+        <v>0.1003572530664923</v>
       </c>
     </row>
     <row r="27">
@@ -5546,7 +5546,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09401838928351207</v>
+        <v>0.0940183892860304</v>
       </c>
     </row>
     <row r="28">
@@ -5559,7 +5559,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08765976105016304</v>
+        <v>0.08765976105256057</v>
       </c>
     </row>
     <row r="29">
@@ -5572,7 +5572,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08122231762392848</v>
+        <v>0.0812223176261981</v>
       </c>
     </row>
     <row r="30">
@@ -5585,7 +5585,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06820524704987573</v>
+        <v>0.06820524705185679</v>
       </c>
     </row>
     <row r="31">
@@ -5598,7 +5598,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04595001893024576</v>
+        <v>0.04595001893120483</v>
       </c>
     </row>
     <row r="32">
@@ -5611,7 +5611,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02955209013652499</v>
+        <v>0.02955209013713142</v>
       </c>
     </row>
     <row r="33">
@@ -5624,7 +5624,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006574821388206642</v>
+        <v>0.006574821388362934</v>
       </c>
     </row>
     <row r="34">
@@ -5751,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9970322626278557</v>
+        <v>0.997032262609885</v>
       </c>
     </row>
     <row r="4">
@@ -5764,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9829380001704797</v>
+        <v>0.982938000152522</v>
       </c>
     </row>
     <row r="5">
@@ -5777,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9754564389237357</v>
+        <v>0.9754564389090734</v>
       </c>
     </row>
     <row r="6">
@@ -5790,7 +5790,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9680592669965357</v>
+        <v>0.9680592669817508</v>
       </c>
     </row>
     <row r="7">
@@ -5803,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9496582346976516</v>
+        <v>0.9496582346825607</v>
       </c>
     </row>
     <row r="8">
@@ -5816,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9461726774884252</v>
+        <v>0.9461726774732757</v>
       </c>
     </row>
     <row r="9">
@@ -5829,7 +5829,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9413285085976643</v>
+        <v>0.9413285085824332</v>
       </c>
     </row>
     <row r="10">
@@ -5842,7 +5842,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9350594559902243</v>
+        <v>0.9350594559748864</v>
       </c>
     </row>
     <row r="11">
@@ -5855,7 +5855,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9292445177348954</v>
+        <v>0.9292445177194577</v>
       </c>
     </row>
     <row r="12">
@@ -5868,7 +5868,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9283845138017902</v>
+        <v>0.9283845137863379</v>
       </c>
     </row>
     <row r="13">
@@ -5881,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9268849358922842</v>
+        <v>0.9268849358768061</v>
       </c>
     </row>
     <row r="14">
@@ -5894,7 +5894,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9207718579556601</v>
+        <v>0.9207718579400777</v>
       </c>
     </row>
     <row r="15">
@@ -5907,7 +5907,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.918505107642334</v>
+        <v>0.9185051076267128</v>
       </c>
     </row>
     <row r="16">
@@ -5920,7 +5920,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.91709279815834</v>
+        <v>0.9170927981426945</v>
       </c>
     </row>
     <row r="17">
@@ -5933,7 +5933,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9157248808912537</v>
+        <v>0.9157248808755848</v>
       </c>
     </row>
     <row r="18">
@@ -5946,7 +5946,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9136976712635837</v>
+        <v>0.9136976712478807</v>
       </c>
     </row>
     <row r="19">
@@ -5959,7 +5959,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9130906054240593</v>
+        <v>0.913090605408346</v>
       </c>
     </row>
     <row r="20">
@@ -5972,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9965038991184788</v>
+        <v>0.996503899094731</v>
       </c>
     </row>
     <row r="21">
@@ -5985,7 +5985,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9929263070204744</v>
+        <v>0.9929263069907063</v>
       </c>
     </row>
     <row r="22">
@@ -5998,7 +5998,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9922218041418351</v>
+        <v>0.9922218041099565</v>
       </c>
     </row>
     <row r="23">
@@ -6011,7 +6011,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9915843859536414</v>
+        <v>0.9915843859176532</v>
       </c>
     </row>
     <row r="24">
@@ -6024,7 +6024,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9793522755371493</v>
+        <v>0.9793522755205656</v>
       </c>
     </row>
     <row r="25">
@@ -6037,7 +6037,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.972681121236429</v>
+        <v>0.9726811212197303</v>
       </c>
     </row>
     <row r="26">
@@ -6050,7 +6050,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9693561337556468</v>
+        <v>0.9693561337388907</v>
       </c>
     </row>
     <row r="27">
@@ -6063,7 +6063,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9477289692065641</v>
+        <v>0.9477289691914413</v>
       </c>
     </row>
     <row r="28">
@@ -6076,7 +6076,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9451652255058732</v>
+        <v>0.9451652254907081</v>
       </c>
     </row>
     <row r="29">
@@ -6089,7 +6089,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9337256510791196</v>
+        <v>0.9337256510637653</v>
       </c>
     </row>
     <row r="30">
@@ -6102,7 +6102,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9255075542297755</v>
+        <v>0.9255075542142852</v>
       </c>
     </row>
     <row r="31">
@@ -6115,7 +6115,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9219501360936539</v>
+        <v>0.9219501360781054</v>
       </c>
     </row>
     <row r="32">
@@ -6128,7 +6128,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9177889695531768</v>
+        <v>0.917788969537561</v>
       </c>
     </row>
     <row r="33">
@@ -6141,7 +6141,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9168735491782193</v>
+        <v>0.9168735491625891</v>
       </c>
     </row>
     <row r="34">
@@ -6154,7 +6154,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9165899061833844</v>
+        <v>0.9165899061677496</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2435137803147311</v>
+        <v>-0.2435137811827695</v>
       </c>
     </row>
     <row r="3">
@@ -6216,7 +6216,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2213518097466251</v>
+        <v>-0.2213518100248035</v>
       </c>
     </row>
     <row r="4">
@@ -6229,7 +6229,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1709400739126068</v>
+        <v>-0.1709400739137021</v>
       </c>
     </row>
     <row r="5">
@@ -6242,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1627735349337686</v>
+        <v>-0.1627735349342159</v>
       </c>
     </row>
     <row r="6">
@@ -6255,7 +6255,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1596992799221537</v>
+        <v>-0.1596992799226283</v>
       </c>
     </row>
     <row r="7">
@@ -6268,7 +6268,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05531741173515235</v>
+        <v>-0.05531741173495035</v>
       </c>
     </row>
     <row r="8">
@@ -6281,7 +6281,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.044712949775306</v>
+        <v>-0.04471294977514609</v>
       </c>
     </row>
     <row r="9">
@@ -6294,7 +6294,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03406728293544074</v>
+        <v>-0.03406728293531405</v>
       </c>
     </row>
     <row r="10">
@@ -6307,7 +6307,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03191344829814016</v>
+        <v>-0.03191344829803835</v>
       </c>
     </row>
     <row r="11">
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02973909574153771</v>
+        <v>-0.02973909574145805</v>
       </c>
     </row>
     <row r="12">
@@ -6333,7 +6333,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02649173510450215</v>
+        <v>-0.02649173510441952</v>
       </c>
     </row>
     <row r="13">
@@ -6346,7 +6346,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02269564667454594</v>
+        <v>-0.02269564667446068</v>
       </c>
     </row>
     <row r="14">
@@ -6359,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01886399381352778</v>
+        <v>-0.01886399381343835</v>
       </c>
     </row>
     <row r="15">
@@ -6372,7 +6372,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01007517541563493</v>
+        <v>-0.01007517541552415</v>
       </c>
     </row>
     <row r="16">
@@ -6385,7 +6385,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00894085252403802</v>
+        <v>-0.008940852523970005</v>
       </c>
     </row>
     <row r="17">
@@ -6398,7 +6398,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.006710175637310224</v>
+        <v>-0.006710175637263463</v>
       </c>
     </row>
     <row r="18">
@@ -6411,7 +6411,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.004465717107361267</v>
+        <v>-0.004465717107343309</v>
       </c>
     </row>
     <row r="19">
@@ -6424,7 +6424,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01614665097024037</v>
+        <v>-0.01614665156069093</v>
       </c>
     </row>
     <row r="20">
@@ -6437,7 +6437,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0121331979625836</v>
+        <v>-0.01213319803255462</v>
       </c>
     </row>
     <row r="21">
@@ -6450,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.008094692258155536</v>
+        <v>-0.008094692328106449</v>
       </c>
     </row>
     <row r="22">
@@ -6463,7 +6463,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.004050256479287632</v>
+        <v>-0.004050256549200444</v>
       </c>
     </row>
     <row r="23">
@@ -6476,7 +6476,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04635766604963305</v>
+        <v>-0.04635766597517114</v>
       </c>
     </row>
     <row r="24">
@@ -6489,7 +6489,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04126270137466804</v>
+        <v>-0.04126270137487367</v>
       </c>
     </row>
     <row r="25">
@@ -6502,7 +6502,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02068316277163813</v>
+        <v>-0.02068316277174378</v>
       </c>
     </row>
     <row r="26">
@@ -6515,7 +6515,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1022906232086462</v>
+        <v>-0.1022906232093684</v>
       </c>
     </row>
     <row r="27">
@@ -6528,7 +6528,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0996719102025381</v>
+        <v>-0.09967191020327212</v>
       </c>
     </row>
     <row r="28">
@@ -6541,7 +6541,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.09705232461416829</v>
+        <v>-0.09705232461492411</v>
       </c>
     </row>
     <row r="29">
@@ -6554,7 +6554,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.09494544720940788</v>
+        <v>-0.09494544721019089</v>
       </c>
     </row>
     <row r="30">
@@ -6567,7 +6567,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.08747054176403796</v>
+        <v>-0.08747054176482108</v>
       </c>
     </row>
     <row r="31">
@@ -6580,7 +6580,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02258117951695168</v>
+        <v>-0.02258117951686608</v>
       </c>
     </row>
     <row r="32">
@@ -6593,7 +6593,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01507164804798841</v>
+        <v>-0.01507164804793448</v>
       </c>
     </row>
     <row r="33">
@@ -6606,7 +6606,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.004320434446250798</v>
+        <v>-0.004320434446255378</v>
       </c>
     </row>
     <row r="34">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2127806335615915</v>
+        <v>0.212780636085268</v>
       </c>
     </row>
     <row r="3">
@@ -6733,7 +6733,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1683743304868922</v>
+        <v>0.1683743305121523</v>
       </c>
     </row>
     <row r="4">
@@ -6746,7 +6746,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08714625745599339</v>
+        <v>0.08714625738692282</v>
       </c>
     </row>
     <row r="5">
@@ -6759,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07864016687707906</v>
+        <v>0.07864016687968362</v>
       </c>
     </row>
     <row r="6">
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07485111343944297</v>
+        <v>0.07485111344193257</v>
       </c>
     </row>
     <row r="7">
@@ -6785,7 +6785,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01639153774312489</v>
+        <v>0.0163915377436713</v>
       </c>
     </row>
     <row r="8">
@@ -6798,7 +6798,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01089970883773586</v>
+        <v>0.01089970883810452</v>
       </c>
     </row>
     <row r="9">
@@ -6811,7 +6811,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006505199794811093</v>
+        <v>0.006505199795033282</v>
       </c>
     </row>
     <row r="10">
@@ -6824,7 +6824,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005466719871977374</v>
+        <v>0.005466719872164847</v>
       </c>
     </row>
     <row r="11">
@@ -6837,7 +6837,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004513966407233552</v>
+        <v>0.004513966407386515</v>
       </c>
     </row>
     <row r="12">
@@ -6850,7 +6850,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003772004935037154</v>
+        <v>0.003772004935166315</v>
       </c>
     </row>
     <row r="13">
@@ -6863,7 +6863,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00291097466400262</v>
+        <v>0.002910974664102031</v>
       </c>
     </row>
     <row r="14">
@@ -6876,7 +6876,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002157800074764547</v>
+        <v>0.002157800074837761</v>
       </c>
     </row>
     <row r="15">
@@ -6889,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009680880903866122</v>
+        <v>0.0009680880904200331</v>
       </c>
     </row>
     <row r="16">
@@ -6902,7 +6902,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006044763521624979</v>
+        <v>0.000604476352183221</v>
       </c>
     </row>
     <row r="17">
@@ -6915,7 +6915,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000312883372520774</v>
+        <v>0.0003128833725313426</v>
       </c>
     </row>
     <row r="18">
@@ -6928,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001163436930202379</v>
+        <v>0.0001163436930242503</v>
       </c>
     </row>
     <row r="19">
@@ -6941,7 +6941,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001572986601972468</v>
+        <v>0.001572986621129561</v>
       </c>
     </row>
     <row r="20">
@@ -6954,7 +6954,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008866995266507085</v>
+        <v>0.0008866995284021321</v>
       </c>
     </row>
     <row r="21">
@@ -6967,7 +6967,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003943595957286195</v>
+        <v>0.0003943595968855993</v>
       </c>
     </row>
     <row r="22">
@@ -6980,7 +6980,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>9.865326652593761e-05</v>
+        <v>9.865326709707432e-05</v>
       </c>
     </row>
     <row r="23">
@@ -6993,7 +6993,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01130179787316326</v>
+        <v>0.01130179786660831</v>
       </c>
     </row>
     <row r="24">
@@ -7006,7 +7006,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.009180458576014903</v>
+        <v>0.00918045857633103</v>
       </c>
     </row>
     <row r="25">
@@ -7019,7 +7019,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002302980694212291</v>
+        <v>0.002302980694291987</v>
       </c>
     </row>
     <row r="26">
@@ -7032,7 +7032,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02053494983893074</v>
+        <v>0.02053494983961297</v>
       </c>
     </row>
     <row r="27">
@@ -7045,7 +7045,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01877394720688884</v>
+        <v>0.0187739472075087</v>
       </c>
     </row>
     <row r="28">
@@ -7058,7 +7058,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01710338742038558</v>
+        <v>0.01710338742095262</v>
       </c>
     </row>
     <row r="29">
@@ -7071,7 +7071,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01561170282599678</v>
+        <v>0.01561170282651416</v>
       </c>
     </row>
     <row r="30">
@@ -7084,7 +7084,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01230305140162889</v>
+        <v>0.01230305140203613</v>
       </c>
     </row>
     <row r="31">
@@ -7097,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002621313908066742</v>
+        <v>0.002621313908151015</v>
       </c>
     </row>
     <row r="32">
@@ -7110,7 +7110,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001100480606319731</v>
+        <v>0.001100480606353948</v>
       </c>
     </row>
     <row r="33">
@@ -7123,7 +7123,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>6.189443009116995e-05</v>
+        <v>6.189443009326471e-05</v>
       </c>
     </row>
     <row r="34">
@@ -7237,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236425136224451e-34</v>
+        <v>2.441606803506622e-35</v>
       </c>
     </row>
     <row r="3">
@@ -7250,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002527475344727636</v>
+        <v>0.0002527475315993884</v>
       </c>
     </row>
     <row r="4">
@@ -7263,7 +7263,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001676236839151363</v>
+        <v>0.001676236847225709</v>
       </c>
     </row>
     <row r="5">
@@ -7276,7 +7276,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002821342273388924</v>
+        <v>0.002821342283282294</v>
       </c>
     </row>
     <row r="6">
@@ -7289,7 +7289,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003984320649707974</v>
+        <v>0.003984320659638714</v>
       </c>
     </row>
     <row r="7">
@@ -7302,7 +7302,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002336168314433021</v>
+        <v>0.002336168324312361</v>
       </c>
     </row>
     <row r="8">
@@ -7315,7 +7315,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.001683797107974191</v>
+        <v>-0.001683797098225664</v>
       </c>
     </row>
     <row r="9">
@@ -7328,7 +7328,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.001054243064546819</v>
+        <v>-0.001054243054777232</v>
       </c>
     </row>
     <row r="10">
@@ -7341,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.002329756663612773</v>
+        <v>-0.002329756653885308</v>
       </c>
     </row>
     <row r="11">
@@ -7354,7 +7354,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.003421104844446293</v>
+        <v>-0.003421104834755701</v>
       </c>
     </row>
     <row r="12">
@@ -7367,7 +7367,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.003294517519350889</v>
+        <v>-0.003294517509656058</v>
       </c>
     </row>
     <row r="13">
@@ -7380,7 +7380,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.003093943742363351</v>
+        <v>-0.003093943732661748</v>
       </c>
     </row>
     <row r="14">
@@ -7393,7 +7393,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.004687736707467707</v>
+        <v>-0.004687736697819972</v>
       </c>
     </row>
     <row r="15">
@@ -7406,7 +7406,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.006060977705888378</v>
+        <v>-0.006060977696287391</v>
       </c>
     </row>
     <row r="16">
@@ -7419,7 +7419,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.006718665874630875</v>
+        <v>-0.006718665865052473</v>
       </c>
     </row>
     <row r="17">
@@ -7432,7 +7432,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.007124536960153066</v>
+        <v>-0.007124536950588654</v>
       </c>
     </row>
     <row r="18">
@@ -7445,7 +7445,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00847312113321335</v>
+        <v>-0.008473121123695292</v>
       </c>
     </row>
     <row r="19">
@@ -7458,7 +7458,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.008640490728072986</v>
+        <v>-0.008640490718560824</v>
       </c>
     </row>
     <row r="20">
@@ -7471,7 +7471,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.371937532224676e-05</v>
+        <v>6.371937849505692e-05</v>
       </c>
     </row>
     <row r="21">
@@ -7484,7 +7484,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.001105277165189433</v>
+        <v>-0.001105277155509815</v>
       </c>
     </row>
     <row r="22">
@@ -7497,7 +7497,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.001443135738033367</v>
+        <v>-0.001443135726579244</v>
       </c>
     </row>
     <row r="23">
@@ -7510,7 +7510,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.001798267661700164</v>
+        <v>-0.001798267647154531</v>
       </c>
     </row>
     <row r="24">
@@ -7523,7 +7523,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00113585438623753</v>
+        <v>0.001135854392153564</v>
       </c>
     </row>
     <row r="25">
@@ -7536,7 +7536,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0004128442187243707</v>
+        <v>-0.000412844212861028</v>
       </c>
     </row>
     <row r="26">
@@ -7549,7 +7549,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.001175563964833264</v>
+        <v>-0.001175563958996153</v>
       </c>
     </row>
     <row r="27">
@@ -7562,7 +7562,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003024810934212416</v>
+        <v>0.003024810944114453</v>
       </c>
     </row>
     <row r="28">
@@ -7575,7 +7575,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004004874353031968</v>
+        <v>0.004004874362966304</v>
       </c>
     </row>
     <row r="29">
@@ -7588,7 +7588,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005452553921422694</v>
+        <v>0.005452553931407281</v>
       </c>
     </row>
     <row r="30">
@@ -7601,7 +7601,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00681225764115109</v>
+        <v>0.006812257651183197</v>
       </c>
     </row>
     <row r="31">
@@ -7614,7 +7614,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008649584763209555</v>
+        <v>0.008649584773304211</v>
       </c>
     </row>
     <row r="32">
@@ -7627,7 +7627,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007176389257336786</v>
+        <v>0.007176389267384184</v>
       </c>
     </row>
     <row r="33">
@@ -7640,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006774217845485935</v>
+        <v>0.006774217855520599</v>
       </c>
     </row>
     <row r="34">
@@ -7653,7 +7653,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006639305914996294</v>
+        <v>0.006639305925026235</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.084194198954893e-33</v>
+        <v>1.398937650713571e-33</v>
       </c>
     </row>
     <row r="3">
@@ -7715,7 +7715,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448136700762664</v>
+        <v>0.01448136684299436</v>
       </c>
     </row>
     <row r="4">
@@ -7728,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09604129634772256</v>
+        <v>0.09604129681034847</v>
       </c>
     </row>
     <row r="5">
@@ -7741,7 +7741,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616510048270302</v>
+        <v>0.1616510053938786</v>
       </c>
     </row>
     <row r="6">
@@ -7754,7 +7754,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.228284757455089</v>
+        <v>0.2282847580240785</v>
       </c>
     </row>
     <row r="7">
@@ -7767,7 +7767,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1338525846492035</v>
+        <v>0.133852585215248</v>
       </c>
     </row>
     <row r="8">
@@ -7780,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0964744678432549</v>
+        <v>-0.09647446728470546</v>
       </c>
     </row>
     <row r="9">
@@ -7793,7 +7793,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06040367817947077</v>
+        <v>-0.06040367761971465</v>
       </c>
     </row>
     <row r="10">
@@ -7806,7 +7806,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1334852241174917</v>
+        <v>-0.133485223560149</v>
       </c>
     </row>
     <row r="11">
@@ -7819,7 +7819,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1960148688585326</v>
+        <v>-0.1960148683033026</v>
       </c>
     </row>
     <row r="12">
@@ -7832,7 +7832,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1887619493907154</v>
+        <v>-0.1887619488352425</v>
       </c>
     </row>
     <row r="13">
@@ -7845,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1772699184883313</v>
+        <v>-0.1772699179324704</v>
       </c>
     </row>
     <row r="14">
@@ -7858,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2685875288064523</v>
+        <v>-0.2685875282536778</v>
       </c>
     </row>
     <row r="15">
@@ -7871,7 +7871,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.347268442270288</v>
+        <v>-0.347268441720192</v>
       </c>
     </row>
     <row r="16">
@@ -7884,7 +7884,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.384951198574921</v>
+        <v>-0.384951198026119</v>
       </c>
     </row>
     <row r="17">
@@ -7897,7 +7897,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4082058988017359</v>
+        <v>-0.4082058982537354</v>
       </c>
     </row>
     <row r="18">
@@ -7910,7 +7910,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4854740802362303</v>
+        <v>-0.4854740796908858</v>
       </c>
     </row>
     <row r="19">
@@ -7923,7 +7923,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.495063651640502</v>
+        <v>-0.4950636510954952</v>
       </c>
     </row>
     <row r="20">
@@ -7936,7 +7936,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003650851279174789</v>
+        <v>0.00365085146096342</v>
       </c>
     </row>
     <row r="21">
@@ -7949,7 +7949,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0633277167575384</v>
+        <v>-0.06332771620293717</v>
       </c>
     </row>
     <row r="22">
@@ -7962,7 +7962,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08268558705380911</v>
+        <v>-0.08268558639753619</v>
       </c>
     </row>
     <row r="23">
@@ -7975,7 +7975,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1030331474502787</v>
+        <v>-0.1030331466168753</v>
       </c>
     </row>
     <row r="24">
@@ -7988,7 +7988,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06507966247283295</v>
+        <v>0.06507966281179672</v>
       </c>
     </row>
     <row r="25">
@@ -8001,7 +8001,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02365423132928228</v>
+        <v>-0.02365423099333748</v>
       </c>
     </row>
     <row r="26">
@@ -8014,7 +8014,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06735485373261157</v>
+        <v>-0.06735485339816975</v>
       </c>
     </row>
     <row r="27">
@@ -8027,7 +8027,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1733089003553951</v>
+        <v>0.1733089009227401</v>
       </c>
     </row>
     <row r="28">
@@ -8040,7 +8040,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2294623979089178</v>
+        <v>0.2294623984781134</v>
       </c>
     </row>
     <row r="29">
@@ -8053,7 +8053,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.312408327265027</v>
+        <v>0.3124083278371018</v>
       </c>
     </row>
     <row r="30">
@@ -8066,7 +8066,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3903136117937031</v>
+        <v>0.3903136123685005</v>
       </c>
     </row>
     <row r="31">
@@ -8079,7 +8079,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4955847014725711</v>
+        <v>0.4955847020509522</v>
       </c>
     </row>
     <row r="32">
@@ -8092,7 +8092,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4111768165884211</v>
+        <v>0.4111768171640946</v>
       </c>
     </row>
     <row r="33">
@@ -8105,7 +8105,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3881340920485497</v>
+        <v>0.3881340926234936</v>
       </c>
     </row>
     <row r="34">
@@ -8118,7 +8118,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3804042078255309</v>
+        <v>0.3804042084002042</v>
       </c>
     </row>
   </sheetData>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3917673702063921</v>
+        <v>0.3917673728876874</v>
       </c>
     </row>
     <row r="3">
@@ -8180,7 +8180,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.004507793661424e-09</v>
+        <v>3.19131411900984e-09</v>
       </c>
     </row>
     <row r="4">
@@ -8193,7 +8193,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142265474992319e-09</v>
+        <v>9.142265474932403e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.397309506398162e-09</v>
+        <v>9.543548624125041e-09</v>
       </c>
     </row>
     <row r="6">
@@ -8219,7 +8219,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.535955161496049e-09</v>
+        <v>9.53595516164084e-09</v>
       </c>
     </row>
     <row r="7">
@@ -8232,7 +8232,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.690727631519336e-09</v>
+        <v>9.69072763159443e-09</v>
       </c>
     </row>
     <row r="8">
@@ -8245,7 +8245,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.704096320966337e-09</v>
+        <v>9.704096321037281e-09</v>
       </c>
     </row>
     <row r="9">
@@ -8258,7 +8258,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.735417988226576e-09</v>
+        <v>9.735417988284585e-09</v>
       </c>
     </row>
     <row r="10">
@@ -8271,7 +8271,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.76446122002574e-09</v>
+        <v>9.764461220073586e-09</v>
       </c>
     </row>
     <row r="11">
@@ -8284,7 +8284,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.786461487738024e-09</v>
+        <v>9.786461487778797e-09</v>
       </c>
     </row>
     <row r="12">
@@ -8297,7 +8297,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.789753216948004e-09</v>
+        <v>9.789753216987735e-09</v>
       </c>
     </row>
     <row r="13">
@@ -8310,7 +8310,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.795297772224868e-09</v>
+        <v>9.795297772262887e-09</v>
       </c>
     </row>
     <row r="14">
@@ -8323,7 +8323,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.813053066750141e-09</v>
+        <v>9.813053066783056e-09</v>
       </c>
     </row>
     <row r="15">
@@ -8336,7 +8336,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.818329879737258e-09</v>
+        <v>9.818329879768805e-09</v>
       </c>
     </row>
     <row r="16">
@@ -8349,7 +8349,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.822044470376766e-09</v>
+        <v>9.82204447040731e-09</v>
       </c>
     </row>
     <row r="17">
@@ -8362,7 +8362,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.825526413982649e-09</v>
+        <v>9.825526414012278e-09</v>
       </c>
     </row>
     <row r="18">
@@ -8375,7 +8375,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.829830630684931e-09</v>
+        <v>9.829830630713477e-09</v>
       </c>
     </row>
     <row r="19">
@@ -8388,7 +8388,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.831202087200317e-09</v>
+        <v>9.831202087228515e-09</v>
       </c>
     </row>
     <row r="20">
@@ -8401,7 +8401,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.453410287784528e-09</v>
+        <v>6.453410302760672e-09</v>
       </c>
     </row>
     <row r="21">
@@ -8414,7 +8414,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>7.936759890964628e-09</v>
+        <v>7.93675989419458e-09</v>
       </c>
     </row>
     <row r="22">
@@ -8427,7 +8427,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>8.084970166734109e-09</v>
+        <v>8.084906786582041e-09</v>
       </c>
     </row>
     <row r="23">
@@ -8440,7 +8440,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.197571085531273e-09</v>
+        <v>8.19757108923487e-09</v>
       </c>
     </row>
     <row r="24">
@@ -8453,7 +8453,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9.283664977902124e-09</v>
+        <v>9.283666481741113e-09</v>
       </c>
     </row>
     <row r="25">
@@ -8466,7 +8466,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.449410021305022e-09</v>
+        <v>9.449410021602441e-09</v>
       </c>
     </row>
     <row r="26">
@@ -8479,7 +8479,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.507137322123574e-09</v>
+        <v>9.50713732236587e-09</v>
       </c>
     </row>
     <row r="27">
@@ -8492,7 +8492,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.701999656461075e-09</v>
+        <v>9.701999656531271e-09</v>
       </c>
     </row>
     <row r="28">
@@ -8505,7 +8505,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.715659986019767e-09</v>
+        <v>9.715659986084673e-09</v>
       </c>
     </row>
     <row r="29">
@@ -8518,7 +8518,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.755885343950258e-09</v>
+        <v>9.755885344000799e-09</v>
       </c>
     </row>
     <row r="30">
@@ -8531,7 +8531,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.77835258118427e-09</v>
+        <v>9.77835258122745e-09</v>
       </c>
     </row>
     <row r="31">
@@ -8544,7 +8544,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.78848208987666e-09</v>
+        <v>9.788482089916256e-09</v>
       </c>
     </row>
     <row r="32">
@@ -8557,7 +8557,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800906902478989e-09</v>
+        <v>9.800906902514491e-09</v>
       </c>
     </row>
     <row r="33">
@@ -8570,7 +8570,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.803325270063581e-09</v>
+        <v>9.803370557157041e-09</v>
       </c>
     </row>
     <row r="34">
@@ -8583,7 +8583,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.803926253655928e-09</v>
+        <v>9.803926253691461e-09</v>
       </c>
     </row>
   </sheetData>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2435137803147196</v>
+        <v>0.2435137811827705</v>
       </c>
     </row>
     <row r="3">
@@ -8645,7 +8645,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.625488445045843e-09</v>
+        <v>4.625488449909407e-09</v>
       </c>
     </row>
     <row r="4">
@@ -8658,7 +8658,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.024894684423439e-09</v>
+        <v>8.67934317989271e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8671,7 +8671,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.093688406074667e-09</v>
+        <v>9.093467988983527e-09</v>
       </c>
     </row>
     <row r="6">
@@ -8684,7 +8684,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312134571178393e-09</v>
+        <v>9.312134578353692e-09</v>
       </c>
     </row>
     <row r="7">
@@ -8697,7 +8697,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.553386593824636e-09</v>
+        <v>9.553386594073174e-09</v>
       </c>
     </row>
     <row r="8">
@@ -8710,7 +8710,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.568192322083408e-09</v>
+        <v>9.568192319726992e-09</v>
       </c>
     </row>
     <row r="9">
@@ -8723,7 +8723,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.600586480542699e-09</v>
+        <v>9.600586480744906e-09</v>
       </c>
     </row>
     <row r="10">
@@ -8736,7 +8736,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.632604488912212e-09</v>
+        <v>9.632604489085409e-09</v>
       </c>
     </row>
     <row r="11">
@@ -8749,7 +8749,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.65880162914608e-09</v>
+        <v>9.658801629297252e-09</v>
       </c>
     </row>
     <row r="12">
@@ -8762,7 +8762,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.662914587512272e-09</v>
+        <v>9.662914587660078e-09</v>
       </c>
     </row>
     <row r="13">
@@ -8775,7 +8775,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.669695098800127e-09</v>
+        <v>9.669695098942468e-09</v>
       </c>
     </row>
     <row r="14">
@@ -8788,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.69149513865033e-09</v>
+        <v>9.691495138776061e-09</v>
       </c>
     </row>
     <row r="15">
@@ -8801,7 +8801,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.697878681637268e-09</v>
+        <v>9.697878681758396e-09</v>
       </c>
     </row>
     <row r="16">
@@ -8814,7 +8814,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.701368724497214e-09</v>
+        <v>9.701368724615845e-09</v>
       </c>
     </row>
     <row r="17">
@@ -8827,7 +8827,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.705151915488464e-09</v>
+        <v>9.705151915604361e-09</v>
       </c>
     </row>
     <row r="18">
@@ -8840,7 +8840,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.710132337626641e-09</v>
+        <v>9.710132337739114e-09</v>
       </c>
     </row>
     <row r="19">
@@ -8853,7 +8853,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.71190497638014e-09</v>
+        <v>9.711904976491359e-09</v>
       </c>
     </row>
     <row r="20">
@@ -8866,7 +8866,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.946841101676623e-09</v>
+        <v>4.428254497006623e-09</v>
       </c>
     </row>
     <row r="21">
@@ -8879,7 +8879,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.485448067203412e-09</v>
+        <v>6.485447463354646e-09</v>
       </c>
     </row>
     <row r="22">
@@ -8892,7 +8892,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.67494018435757e-09</v>
+        <v>6.674940201288336e-09</v>
       </c>
     </row>
     <row r="23">
@@ -8905,7 +8905,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.833998555975447e-09</v>
+        <v>6.764693643786182e-09</v>
       </c>
     </row>
     <row r="24">
@@ -8918,7 +8918,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8.849651247275866e-09</v>
+        <v>8.922809985935824e-09</v>
       </c>
     </row>
     <row r="25">
@@ -8931,7 +8931,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.065464970136255e-09</v>
+        <v>9.065464958963341e-09</v>
       </c>
     </row>
     <row r="26">
@@ -8944,7 +8944,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.146321092175854e-09</v>
+        <v>9.14632297656978e-09</v>
       </c>
     </row>
     <row r="27">
@@ -8957,7 +8957,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.576689382622885e-09</v>
+        <v>9.57668938284762e-09</v>
       </c>
     </row>
     <row r="28">
@@ -8970,7 +8970,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.604993813130988e-09</v>
+        <v>9.60499380469983e-09</v>
       </c>
     </row>
     <row r="29">
@@ -8983,7 +8983,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.685139761025741e-09</v>
+        <v>9.685139761156072e-09</v>
       </c>
     </row>
     <row r="30">
@@ -8996,7 +8996,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.727205829585891e-09</v>
+        <v>9.727205829686526e-09</v>
       </c>
     </row>
     <row r="31">
@@ -9009,7 +9009,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.746594436971851e-09</v>
+        <v>9.746594437059909e-09</v>
       </c>
     </row>
     <row r="32">
@@ -9022,7 +9022,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.755769328698041e-09</v>
+        <v>9.755769328780561e-09</v>
       </c>
     </row>
     <row r="33">
@@ -9035,7 +9035,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.757666773277082e-09</v>
+        <v>9.7576667733586e-09</v>
       </c>
     </row>
     <row r="34">
@@ -9048,7 +9048,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.758275526275375e-09</v>
+        <v>9.758275526356418e-09</v>
       </c>
     </row>
   </sheetData>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673702063769</v>
+        <v>3.917673728877104</v>
       </c>
     </row>
     <row r="3">
@@ -10040,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.444296147804558</v>
+        <v>3.444296146335761</v>
       </c>
     </row>
     <row r="4">
@@ -10053,7 +10053,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.362892640668198</v>
+        <v>2.362892639193412</v>
       </c>
     </row>
     <row r="5">
@@ -10066,7 +10066,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.222992306735416</v>
+        <v>2.222992306738734</v>
       </c>
     </row>
     <row r="6">
@@ -10079,7 +10079,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.144293506195072</v>
+        <v>2.144293506197811</v>
       </c>
     </row>
     <row r="7">
@@ -10092,7 +10092,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.095266133688261</v>
+        <v>1.095266133689039</v>
       </c>
     </row>
     <row r="8">
@@ -10105,7 +10105,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8933517185604528</v>
+        <v>0.893351718561187</v>
       </c>
     </row>
     <row r="9">
@@ -10118,7 +10118,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6885138662409733</v>
+        <v>0.6885138662415425</v>
       </c>
     </row>
     <row r="10">
@@ -10131,7 +10131,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6243334424658025</v>
+        <v>0.6243334424662818</v>
       </c>
     </row>
     <row r="11">
@@ -10144,7 +10144,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5607726392660801</v>
+        <v>0.5607726392663582</v>
       </c>
     </row>
     <row r="12">
@@ -10157,7 +10157,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5152190372892715</v>
+        <v>0.5152190372895464</v>
       </c>
     </row>
     <row r="13">
@@ -10170,7 +10170,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4543380038362746</v>
+        <v>0.4543380038364295</v>
       </c>
     </row>
     <row r="14">
@@ -10183,7 +10183,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3916718752880438</v>
+        <v>0.3916718752880978</v>
       </c>
     </row>
     <row r="15">
@@ -10196,7 +10196,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2709428141230015</v>
+        <v>0.2709428141230751</v>
       </c>
     </row>
     <row r="16">
@@ -10209,7 +10209,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2105859396904521</v>
+        <v>0.2105859396904802</v>
       </c>
     </row>
     <row r="17">
@@ -10222,7 +10222,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1503045723317077</v>
+        <v>0.1503045723316906</v>
       </c>
     </row>
     <row r="18">
@@ -10235,7 +10235,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09005303740126194</v>
+        <v>0.09005303740125656</v>
       </c>
     </row>
     <row r="19">
@@ -10248,7 +10248,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3611372143838656</v>
+        <v>0.3611372143885925</v>
       </c>
     </row>
     <row r="20">
@@ -10261,7 +10261,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2709763250343149</v>
+        <v>0.2709763250372259</v>
       </c>
     </row>
     <row r="21">
@@ -10274,7 +10274,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1801442294307969</v>
+        <v>0.1801442294320319</v>
       </c>
     </row>
     <row r="22">
@@ -10287,7 +10287,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09004355242694133</v>
+        <v>0.09004355242717331</v>
       </c>
     </row>
     <row r="23">
@@ -10300,7 +10300,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9396124681996549</v>
+        <v>0.9396124681980343</v>
       </c>
     </row>
     <row r="24">
@@ -10313,7 +10313,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8464309343880515</v>
+        <v>0.8464309343882546</v>
       </c>
     </row>
     <row r="25">
@@ -10326,7 +10326,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.421287356482078</v>
+        <v>0.421287356482092</v>
       </c>
     </row>
     <row r="26">
@@ -10339,7 +10339,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9507789388163956</v>
+        <v>0.9507789388168864</v>
       </c>
     </row>
     <row r="27">
@@ -10352,7 +10352,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8881781441114122</v>
+        <v>0.8881781441118606</v>
       </c>
     </row>
     <row r="28">
@@ -10365,7 +10365,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8248492530775559</v>
+        <v>0.8248492530778134</v>
       </c>
     </row>
     <row r="29">
@@ -10378,7 +10378,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7535485117824654</v>
+        <v>0.753548511782367</v>
       </c>
     </row>
     <row r="30">
@@ -10391,7 +10391,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6257152703598499</v>
+        <v>0.6257152703595127</v>
       </c>
     </row>
     <row r="31">
@@ -10404,7 +10404,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4218197044091215</v>
+        <v>0.4218197044087236</v>
       </c>
     </row>
     <row r="32">
@@ -10417,7 +10417,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2702261672846655</v>
+        <v>0.2702261672842098</v>
       </c>
     </row>
     <row r="33">
@@ -10430,7 +10430,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06001307052828038</v>
+        <v>0.06001307052828447</v>
       </c>
     </row>
     <row r="34">

--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_NLP_Opt_problem_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Variables/33bus_NLP_Opt_problem_Variables.xlsx
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137811827701</v>
+        <v>2.435138862780946</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207819567677234</v>
+        <v>2.207820371173597</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.684198075943684</v>
+        <v>1.68419866262262</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.594063085570312</v>
+        <v>1.594063618939181</v>
       </c>
     </row>
     <row r="6">
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.554539547901221</v>
+        <v>1.55454003995338</v>
       </c>
     </row>
     <row r="7">
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5278865199928262</v>
+        <v>0.5278868082826094</v>
       </c>
     </row>
     <row r="8">
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4215580893389959</v>
+        <v>0.4215583559006042</v>
       </c>
     </row>
     <row r="9">
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3199593633483477</v>
+        <v>0.3199596017141459</v>
       </c>
     </row>
     <row r="10">
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2969559782658848</v>
+        <v>0.29695618877005</v>
       </c>
     </row>
     <row r="11">
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2744320645209086</v>
+        <v>0.2744322489641249</v>
       </c>
     </row>
     <row r="12">
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2442490965934141</v>
+        <v>0.2442492567284482</v>
       </c>
     </row>
     <row r="13">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2089578362709599</v>
+        <v>0.2089579723518575</v>
       </c>
     </row>
     <row r="14">
@@ -932,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1718601867185576</v>
+        <v>0.1718602987503814</v>
       </c>
     </row>
     <row r="15">
@@ -945,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09090050212527956</v>
+        <v>0.09090059097962566</v>
       </c>
     </row>
     <row r="16">
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08058288743766795</v>
+        <v>0.08058295372864066</v>
       </c>
     </row>
     <row r="17">
@@ -971,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06037743878417601</v>
+        <v>0.0603774825016945</v>
       </c>
     </row>
     <row r="18">
@@ -984,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04004156941020298</v>
+        <v>0.04004159134000318</v>
       </c>
     </row>
     <row r="19">
@@ -997,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161078607074856</v>
+        <v>0.1610788104900962</v>
       </c>
     </row>
     <row r="20">
@@ -1010,7 +1010,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1209250581677956</v>
+        <v>0.1209252234680758</v>
       </c>
     </row>
     <row r="21">
@@ -1023,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08017526930728991</v>
+        <v>0.08017537955019804</v>
       </c>
     </row>
     <row r="22">
@@ -1036,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04005762529402546</v>
+        <v>0.04005768046619451</v>
       </c>
     </row>
     <row r="23">
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4572427695308257</v>
+        <v>0.4572429168020697</v>
       </c>
     </row>
     <row r="24">
@@ -1062,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4050688882466957</v>
+        <v>0.4050689827571219</v>
       </c>
     </row>
     <row r="25">
@@ -1075,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2010073106396248</v>
+        <v>0.2010073575288551</v>
       </c>
     </row>
     <row r="26">
@@ -1088,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9736351611302752</v>
+        <v>0.973635319622268</v>
       </c>
     </row>
     <row r="27">
@@ -1101,7 +1101,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9473104677130806</v>
+        <v>0.947310597386668</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9206156144626298</v>
+        <v>0.9206157398887527</v>
       </c>
     </row>
     <row r="29">
@@ -1127,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8906519783222855</v>
+        <v>0.8906520777578741</v>
       </c>
     </row>
     <row r="30">
@@ -1140,7 +1140,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8138278559374967</v>
+        <v>0.8138279327995157</v>
       </c>
     </row>
     <row r="31">
@@ -1153,7 +1153,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2118436596073714</v>
+        <v>0.2118437163168707</v>
       </c>
     </row>
     <row r="32">
@@ -1166,7 +1166,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1402687667775737</v>
+        <v>0.1402688037887145</v>
       </c>
     </row>
     <row r="33">
@@ -1179,7 +1179,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0400203774157859</v>
+        <v>0.04002039651226141</v>
       </c>
     </row>
     <row r="34">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.905433328811625</v>
+        <v>-3.905434254067952</v>
       </c>
     </row>
     <row r="3">
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.392505015968796</v>
+        <v>-3.392505662217852</v>
       </c>
     </row>
     <row r="4">
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.342992211303163</v>
+        <v>-2.342992691114812</v>
       </c>
     </row>
     <row r="5">
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.204293410838299</v>
+        <v>-2.204293845179273</v>
       </c>
     </row>
     <row r="6">
@@ -1345,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.10604497559867</v>
+        <v>-2.106045360653613</v>
       </c>
     </row>
     <row r="7">
@@ -1358,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.093351621520223</v>
+        <v>-1.09335182807681</v>
       </c>
     </row>
     <row r="8">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8885137688873876</v>
+        <v>-0.8885139512223572</v>
       </c>
     </row>
     <row r="9">
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6843333448216594</v>
+        <v>-0.6843335038938254</v>
       </c>
     </row>
     <row r="10">
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6207725414017607</v>
+        <v>-0.6207726794614212</v>
       </c>
     </row>
     <row r="11">
@@ -1410,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5602189393918567</v>
+        <v>-0.5602190599439374</v>
       </c>
     </row>
     <row r="12">
@@ -1423,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5143379058835567</v>
+        <v>-0.5143380089847051</v>
       </c>
     </row>
     <row r="13">
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4516717771575604</v>
+        <v>-0.4516718623474693</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3909427159397661</v>
+        <v>-0.3909427856872625</v>
       </c>
     </row>
     <row r="15">
@@ -1462,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2705858414700379</v>
+        <v>-0.270585896549694</v>
       </c>
     </row>
     <row r="16">
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2103044740764465</v>
+        <v>-0.210304514770649</v>
       </c>
     </row>
     <row r="17">
@@ -1488,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1500529391029256</v>
+        <v>-0.1500529658942112</v>
       </c>
     </row>
     <row r="18">
@@ -1501,7 +1501,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08999990168796942</v>
+        <v>-0.08999991503139507</v>
       </c>
     </row>
     <row r="19">
@@ -1514,7 +1514,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3609762605030662</v>
+        <v>-0.3609764914490646</v>
       </c>
     </row>
     <row r="20">
@@ -1527,7 +1527,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2701441500644723</v>
+        <v>-0.2701443261210882</v>
       </c>
     </row>
     <row r="21">
@@ -1540,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1800434715781671</v>
+        <v>-0.1800435886415219</v>
       </c>
     </row>
     <row r="22">
@@ -1553,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08999991802430905</v>
+        <v>-0.08999997636583601</v>
       </c>
     </row>
     <row r="23">
@@ -1566,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9364308415515897</v>
+        <v>-0.9364309507540286</v>
       </c>
     </row>
     <row r="24">
@@ -1579,7 +1579,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8412872619879961</v>
+        <v>-0.8412873296446471</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4199999049286365</v>
+        <v>-0.4199999376422389</v>
       </c>
     </row>
     <row r="26">
@@ -1605,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9481780470919621</v>
+        <v>-0.9481782008312059</v>
       </c>
     </row>
     <row r="27">
@@ -1618,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8848491559211156</v>
+        <v>-0.8848492858870718</v>
       </c>
     </row>
     <row r="28">
@@ -1631,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8135484142235044</v>
+        <v>-0.8135485189706477</v>
       </c>
     </row>
     <row r="29">
@@ -1644,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7457151725759603</v>
+        <v>-0.7457152562218126</v>
       </c>
     </row>
     <row r="30">
@@ -1657,7 +1657,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6218196065238702</v>
+        <v>-0.6218196717906642</v>
       </c>
     </row>
     <row r="31">
@@ -1670,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4202260692751781</v>
+        <v>-0.4202261172491248</v>
       </c>
     </row>
     <row r="32">
@@ -1683,7 +1683,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2700129724945654</v>
+        <v>-0.2700130043460637</v>
       </c>
     </row>
     <row r="33">
@@ -1696,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.05999990196071475</v>
+        <v>-0.05999991785851814</v>
       </c>
     </row>
     <row r="34">
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.42889812849711</v>
+        <v>-2.428899175807118</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.181440758680999</v>
+        <v>-2.181441549249428</v>
       </c>
     </row>
     <row r="4">
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.674062994635612</v>
+        <v>-1.6740635760614</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.584539454779748</v>
+        <v>-1.584539983355118</v>
       </c>
     </row>
     <row r="6">
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.52152158558911</v>
+        <v>-1.521522061761118</v>
       </c>
     </row>
     <row r="7">
@@ -1875,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5215579936571046</v>
+        <v>-0.5215582785323392</v>
       </c>
     </row>
     <row r="8">
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4199592673424934</v>
+        <v>-0.419959532946832</v>
       </c>
     </row>
     <row r="9">
@@ -1901,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3169558819398688</v>
+        <v>-0.3169561182521008</v>
       </c>
     </row>
     <row r="10">
@@ -1914,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2944319679328089</v>
+        <v>-0.2944321767559899</v>
       </c>
     </row>
     <row r="11">
@@ -1927,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2742489999642217</v>
+        <v>-0.2742491842884576</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2439577395740322</v>
+        <v>-0.2439578995307023</v>
       </c>
     </row>
     <row r="13">
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2068600898035999</v>
+        <v>-0.2068602246540063</v>
       </c>
     </row>
     <row r="14">
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1709004051464724</v>
+        <v>-0.1709005166412148</v>
       </c>
     </row>
     <row r="15">
@@ -1979,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09058279042392314</v>
+        <v>-0.09058287908278118</v>
       </c>
     </row>
     <row r="16">
@@ -1992,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08037734173267808</v>
+        <v>-0.08037740790017622</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06004147230886048</v>
+        <v>-0.06004151583724138</v>
       </c>
     </row>
     <row r="18">
@@ -2018,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03999990288091837</v>
+        <v>-0.03999992479055692</v>
       </c>
     </row>
     <row r="19">
@@ -2031,7 +2031,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1609250138852047</v>
+        <v>-0.1609252170717212</v>
       </c>
     </row>
     <row r="20">
@@ -2044,7 +2044,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1201752044528082</v>
+        <v>-0.1201753685922213</v>
       </c>
     </row>
     <row r="21">
@@ -2057,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.08005755854455288</v>
+        <v>-0.08005766860513575</v>
       </c>
     </row>
     <row r="22">
@@ -2070,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03999993235307642</v>
+        <v>-0.03999998743593025</v>
       </c>
     </row>
     <row r="23">
@@ -2083,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4550687990185764</v>
+        <v>-0.4550689455908064</v>
       </c>
     </row>
     <row r="24">
@@ -2096,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4010072199849724</v>
+        <v>-0.4010073135648362</v>
       </c>
     </row>
     <row r="25">
@@ -2109,7 +2109,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1999999085367499</v>
+        <v>-0.1999999551985709</v>
       </c>
     </row>
     <row r="26">
@@ -2122,7 +2122,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9723103719462856</v>
+        <v>-0.9723105299725887</v>
       </c>
     </row>
     <row r="27">
@@ -2135,7 +2135,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9456155184127013</v>
+        <v>-0.9456156475599897</v>
       </c>
     </row>
     <row r="28">
@@ -2148,7 +2148,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9106518814708764</v>
+        <v>-0.9106520039518884</v>
       </c>
     </row>
     <row r="29">
@@ -2161,7 +2161,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8838277586654719</v>
+        <v>-0.8838278563495372</v>
       </c>
     </row>
     <row r="30">
@@ -2174,7 +2174,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8118435621414299</v>
+        <v>-0.8118436385439765</v>
       </c>
     </row>
     <row r="31">
@@ -2187,7 +2187,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2102686692198397</v>
+        <v>-0.2102687254147373</v>
       </c>
     </row>
     <row r="32">
@@ -2200,7 +2200,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1400202798391348</v>
+        <v>-0.140020316767</v>
       </c>
     </row>
     <row r="33">
@@ -2213,7 +2213,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03999990241723594</v>
+        <v>-0.03999992149942955</v>
       </c>
     </row>
     <row r="34">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1224040006547966</v>
+        <v>0.01224040721240272</v>
       </c>
     </row>
     <row r="3">
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5179113036696492</v>
+        <v>0.05179115574918569</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1990042789024926</v>
+        <v>0.01990043820484289</v>
       </c>
     </row>
     <row r="5">
@@ -2366,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1869889590043528</v>
+        <v>0.01869890531203566</v>
       </c>
     </row>
     <row r="6">
@@ -2379,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3824853059914091</v>
+        <v>0.03824854899500352</v>
       </c>
     </row>
     <row r="7">
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01914512168816884</v>
+        <v>0.001914513201768386</v>
       </c>
     </row>
     <row r="8">
@@ -2405,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04837949673799358</v>
+        <v>0.004837952570433401</v>
       </c>
     </row>
     <row r="9">
@@ -2418,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04180521419883121</v>
+        <v>0.004180524278254438</v>
       </c>
     </row>
     <row r="10">
@@ -2431,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03560901064521005</v>
+        <v>0.003560903436010676</v>
       </c>
     </row>
     <row r="11">
@@ -2444,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005536998745014898</v>
+        <v>0.0005537002341071684</v>
       </c>
     </row>
     <row r="12">
@@ -2457,7 +2457,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008811314059897768</v>
+        <v>0.0008811319453627675</v>
       </c>
     </row>
     <row r="13">
@@ -2470,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02666226678869066</v>
+        <v>0.002666228242818036</v>
       </c>
     </row>
     <row r="14">
@@ -2483,7 +2483,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007291593483316205</v>
+        <v>0.0007291597564140773</v>
       </c>
     </row>
     <row r="15">
@@ -2496,7 +2496,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003569726530372463</v>
+        <v>0.000356972872666006</v>
       </c>
     </row>
     <row r="16">
@@ -2509,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00281465614033749</v>
+        <v>0.0002814657830896294</v>
       </c>
     </row>
     <row r="17">
@@ -2522,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002516332287649803</v>
+        <v>0.0002516333704205564</v>
       </c>
     </row>
     <row r="18">
@@ -2535,7 +2535,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005313571328713351</v>
+        <v>5.313573899101698e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2548,7 +2548,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001609538855262826</v>
+        <v>0.0001609541251212931</v>
       </c>
     </row>
     <row r="20">
@@ -2561,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008321749727535632</v>
+        <v>0.0008321762610830064</v>
       </c>
     </row>
     <row r="21">
@@ -2574,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001007578538647635</v>
+        <v>0.0001007580100420569</v>
       </c>
     </row>
     <row r="22">
@@ -2587,7 +2587,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004363440286425657</v>
+        <v>4.363447047239788e-05</v>
       </c>
     </row>
     <row r="23">
@@ -2600,7 +2600,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03181626646444613</v>
+        <v>0.003181627669555098</v>
       </c>
     </row>
     <row r="24">
@@ -2613,7 +2613,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05143672400258481</v>
+        <v>0.005143673578711372</v>
       </c>
     </row>
     <row r="25">
@@ -2626,7 +2626,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01287451553455554</v>
+        <v>0.001287451844156351</v>
       </c>
     </row>
     <row r="26">
@@ -2639,7 +2639,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02600891724924281</v>
+        <v>0.002600892639108565</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03328988190745008</v>
+        <v>0.003328989224229417</v>
       </c>
     </row>
     <row r="28">
@@ -2665,7 +2665,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1130083885430899</v>
+        <v>0.01130084219465033</v>
       </c>
     </row>
     <row r="29">
@@ -2678,7 +2678,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0783333920640672</v>
+        <v>0.007833341216905154</v>
       </c>
     </row>
     <row r="30">
@@ -2691,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03895663835642438</v>
+        <v>0.003895664737676441</v>
       </c>
     </row>
     <row r="31">
@@ -2704,7 +2704,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0159363513354549</v>
+        <v>0.001593635654275616</v>
       </c>
     </row>
     <row r="32">
@@ -2717,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002131947896444331</v>
+        <v>0.0002131948610895051</v>
       </c>
     </row>
     <row r="33">
@@ -2730,7 +2730,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001316856756972129</v>
+        <v>1.316857673572258e-05</v>
       </c>
     </row>
     <row r="34">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06239683330591106</v>
+        <v>0.006239686973827929</v>
       </c>
     </row>
     <row r="3">
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2637880899623468</v>
+        <v>0.02637882192416896</v>
       </c>
     </row>
     <row r="4">
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1013508130807139</v>
+        <v>0.01013508656122042</v>
       </c>
     </row>
     <row r="5">
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09523630790564397</v>
+        <v>0.009523635584063328</v>
       </c>
     </row>
     <row r="6">
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3301796231211185</v>
+        <v>0.03301797819226238</v>
       </c>
     </row>
     <row r="7">
@@ -2909,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06328526335721563</v>
+        <v>0.006328529750270206</v>
       </c>
     </row>
     <row r="8">
@@ -2922,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01598821996502409</v>
+        <v>0.001598822953772228</v>
       </c>
     </row>
     <row r="9">
@@ -2935,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03003481408478947</v>
+        <v>0.003003483462045153</v>
       </c>
     </row>
     <row r="10">
@@ -2948,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02524010333075921</v>
+        <v>0.002524012014060162</v>
       </c>
     </row>
     <row r="11">
@@ -2961,7 +2961,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001830645566869293</v>
+        <v>0.0001830646756673104</v>
       </c>
     </row>
     <row r="12">
@@ -2974,7 +2974,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002913570193818771</v>
+        <v>0.0002913571977458673</v>
       </c>
     </row>
     <row r="13">
@@ -2987,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0209774646735994</v>
+        <v>0.002097747697851204</v>
       </c>
     </row>
     <row r="14">
@@ -3000,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009597815720852054</v>
+        <v>0.0009597821091666958</v>
       </c>
     </row>
     <row r="15">
@@ -3013,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003177117013564157</v>
+        <v>0.0003177118968444859</v>
       </c>
     </row>
     <row r="16">
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002055457049898735</v>
+        <v>0.0002055458284644374</v>
       </c>
     </row>
     <row r="17">
@@ -3039,7 +3039,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0033596647531553</v>
+        <v>0.0003359666644531245</v>
       </c>
     </row>
     <row r="18">
@@ -3052,7 +3052,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000416665292846119</v>
+        <v>4.166654944626202e-05</v>
       </c>
     </row>
     <row r="19">
@@ -3065,7 +3065,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001535931896512466</v>
+        <v>0.0001535934183749532</v>
       </c>
     </row>
     <row r="20">
@@ -3078,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007498537149874807</v>
+        <v>0.0007498548758544388</v>
       </c>
     </row>
     <row r="21">
@@ -3091,7 +3091,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001177107627370333</v>
+        <v>0.0001177109450622993</v>
       </c>
     </row>
     <row r="22">
@@ -3104,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005769294094903898</v>
+        <v>5.769303026426087e-05</v>
       </c>
     </row>
     <row r="23">
@@ -3117,7 +3117,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02173970512249213</v>
+        <v>0.002173971211263392</v>
       </c>
     </row>
     <row r="24">
@@ -3130,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04061668261723383</v>
+        <v>0.004061669192285677</v>
       </c>
     </row>
     <row r="25">
@@ -3143,7 +3143,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01007402102874977</v>
+        <v>0.001007402330284179</v>
       </c>
     </row>
     <row r="26">
@@ -3156,7 +3156,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01324789183989594</v>
+        <v>0.001324789649679303</v>
       </c>
     </row>
     <row r="27">
@@ -3169,7 +3169,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01694949300379278</v>
+        <v>0.001694949826678283</v>
       </c>
     </row>
     <row r="28">
@@ -3182,7 +3182,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0996373299175346</v>
+        <v>0.009963735936864282</v>
       </c>
     </row>
     <row r="29">
@@ -3195,7 +3195,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06824219656813568</v>
+        <v>0.006824221408336939</v>
       </c>
     </row>
     <row r="30">
@@ -3208,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01984293796066794</v>
+        <v>0.001984294255539254</v>
       </c>
     </row>
     <row r="31">
@@ -3221,7 +3221,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01574990387531727</v>
+        <v>0.001574990902133422</v>
       </c>
     </row>
     <row r="32">
@@ -3234,7 +3234,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002484869384389299</v>
+        <v>0.0002484870217145385</v>
       </c>
     </row>
     <row r="33">
@@ -3247,7 +3247,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002047499854995749</v>
+        <v>2.047501283186648e-05</v>
       </c>
     </row>
     <row r="34">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673728876874</v>
+        <v>3.917674661280238</v>
       </c>
     </row>
     <row r="3">
@@ -3374,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.19131411900984e-08</v>
+        <v>9.47301025202102e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142265474932403e-08</v>
+        <v>4.552539035009056e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.543548624125041e-08</v>
+        <v>5.937662717574077e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.53595516164084e-08</v>
+        <v>6.446932584767366e-08</v>
       </c>
     </row>
     <row r="7">
@@ -3426,7 +3426,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.69072763159443e-08</v>
+        <v>7.40953636112879e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3439,7 +3439,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.704096321037281e-08</v>
+        <v>7.571594224150671e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3452,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.735417988284584e-08</v>
+        <v>7.694976289375361e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3465,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.764461220073586e-08</v>
+        <v>7.900360702321173e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3478,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.786461487778797e-08</v>
+        <v>8.071662148234172e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3491,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.789753216987735e-08</v>
+        <v>8.098615562112444e-08</v>
       </c>
     </row>
     <row r="13">
@@ -3504,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.795297772262887e-08</v>
+        <v>8.160551045492732e-08</v>
       </c>
     </row>
     <row r="14">
@@ -3517,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.813053066783056e-08</v>
+        <v>8.309619681471116e-08</v>
       </c>
     </row>
     <row r="15">
@@ -3530,7 +3530,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.818329879768805e-08</v>
+        <v>8.373516406189452e-08</v>
       </c>
     </row>
     <row r="16">
@@ -3543,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.822044470407311e-08</v>
+        <v>8.400403404116102e-08</v>
       </c>
     </row>
     <row r="17">
@@ -3556,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.825526414012279e-08</v>
+        <v>8.449397933135711e-08</v>
       </c>
     </row>
     <row r="18">
@@ -3569,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.829830630713478e-08</v>
+        <v>8.487614851273192e-08</v>
       </c>
     </row>
     <row r="19">
@@ -3582,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.831202087228515e-08</v>
+        <v>8.496859660487081e-08</v>
       </c>
     </row>
     <row r="20">
@@ -3595,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.453410302760673e-08</v>
+        <v>1.093323454380465e-08</v>
       </c>
     </row>
     <row r="21">
@@ -3608,7 +3608,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>7.936759894194579e-08</v>
+        <v>2.053044034454044e-08</v>
       </c>
     </row>
     <row r="22">
@@ -3621,7 +3621,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>8.084906786582042e-08</v>
+        <v>2.21947897372428e-08</v>
       </c>
     </row>
     <row r="23">
@@ -3634,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.197571089234871e-08</v>
+        <v>2.363418425474825e-08</v>
       </c>
     </row>
     <row r="24">
@@ -3647,7 +3647,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9.283666481741113e-08</v>
+        <v>5.246932529080734e-08</v>
       </c>
     </row>
     <row r="25">
@@ -3660,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.449410021602442e-08</v>
+        <v>5.984174072031877e-08</v>
       </c>
     </row>
     <row r="26">
@@ -3673,7 +3673,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.50713732236587e-08</v>
+        <v>6.235778715343052e-08</v>
       </c>
     </row>
     <row r="27">
@@ -3686,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.701999656531272e-08</v>
+        <v>7.42801830078789e-08</v>
       </c>
     </row>
     <row r="28">
@@ -3699,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.715659986084673e-08</v>
+        <v>7.527823104633287e-08</v>
       </c>
     </row>
     <row r="29">
@@ -3712,7 +3712,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.755885344000798e-08</v>
+        <v>7.846806854219613e-08</v>
       </c>
     </row>
     <row r="30">
@@ -3725,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.77835258122745e-08</v>
+        <v>8.030656419256176e-08</v>
       </c>
     </row>
     <row r="31">
@@ -3738,7 +3738,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.788482089916256e-08</v>
+        <v>8.111268577531791e-08</v>
       </c>
     </row>
     <row r="32">
@@ -3751,7 +3751,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800906902514491e-08</v>
+        <v>8.195800868819984e-08</v>
       </c>
     </row>
     <row r="33">
@@ -3764,7 +3764,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.803370557157041e-08</v>
+        <v>8.208921812723579e-08</v>
       </c>
     </row>
     <row r="34">
@@ -3777,7 +3777,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.80392625369146e-08</v>
+        <v>8.214149399592531e-08</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435137811827705</v>
+        <v>2.435138862780854</v>
       </c>
     </row>
     <row r="3">
@@ -3839,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.625488449909408e-08</v>
+        <v>5.856249545146451e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3852,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.679343179892709e-08</v>
+        <v>3.017526583934277e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3865,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.093467988983527e-08</v>
+        <v>4.287777250214457e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3878,7 +3878,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312134578353692e-08</v>
+        <v>5.659824008525249e-08</v>
       </c>
     </row>
     <row r="7">
@@ -3891,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.553386594073173e-08</v>
+        <v>6.6143747347641e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3904,7 +3904,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.568192319726992e-08</v>
+        <v>7.736825938644912e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3917,7 +3917,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.600586480744906e-08</v>
+        <v>6.876729684373091e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3930,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.632604489085409e-08</v>
+        <v>7.051792750248803e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3943,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.658801629297252e-08</v>
+        <v>7.220807944014363e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3956,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.662914587660078e-08</v>
+        <v>7.24399607419184e-08</v>
       </c>
     </row>
     <row r="13">
@@ -3969,7 +3969,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.669695098942468e-08</v>
+        <v>7.282113645709752e-08</v>
       </c>
     </row>
     <row r="14">
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.691495138776062e-08</v>
+        <v>7.409639070460421e-08</v>
       </c>
     </row>
     <row r="15">
@@ -3995,7 +3995,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.697878681758396e-08</v>
+        <v>7.433844507495674e-08</v>
       </c>
     </row>
     <row r="16">
@@ -4008,7 +4008,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.701368724615844e-08</v>
+        <v>7.464583774752322e-08</v>
       </c>
     </row>
     <row r="17">
@@ -4021,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.70515191560436e-08</v>
+        <v>7.460151570324348e-08</v>
       </c>
     </row>
     <row r="18">
@@ -4034,7 +4034,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.710132337739115e-08</v>
+        <v>7.550275714458682e-08</v>
       </c>
     </row>
     <row r="19">
@@ -4047,7 +4047,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.711904976491358e-08</v>
+        <v>7.520945702648132e-08</v>
       </c>
     </row>
     <row r="20">
@@ -4060,7 +4060,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.428254497006623e-08</v>
+        <v>6.396296771670428e-09</v>
       </c>
     </row>
     <row r="21">
@@ -4073,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.485447463354646e-08</v>
+        <v>1.095797336721491e-08</v>
       </c>
     </row>
     <row r="22">
@@ -4086,7 +4086,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.674940201288336e-08</v>
+        <v>1.186111336650457e-08</v>
       </c>
     </row>
     <row r="23">
@@ -4099,7 +4099,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.764693643786181e-08</v>
+        <v>1.25640884576436e-08</v>
       </c>
     </row>
     <row r="24">
@@ -4112,7 +4112,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8.922809985935824e-08</v>
+        <v>3.716636845209373e-08</v>
       </c>
     </row>
     <row r="25">
@@ -4125,7 +4125,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.065464958963341e-08</v>
+        <v>4.396403061746329e-08</v>
       </c>
     </row>
     <row r="26">
@@ -4138,7 +4138,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.14632297656978e-08</v>
+        <v>4.480143494292499e-08</v>
       </c>
     </row>
     <row r="27">
@@ -4151,7 +4151,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.57668938284762e-08</v>
+        <v>6.741403937819118e-08</v>
       </c>
     </row>
     <row r="28">
@@ -4164,7 +4164,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.60499380469983e-08</v>
+        <v>9.232877484670614e-08</v>
       </c>
     </row>
     <row r="29">
@@ -4177,7 +4177,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.685139761156072e-08</v>
+        <v>7.38059548500415e-08</v>
       </c>
     </row>
     <row r="30">
@@ -4190,7 +4190,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.727205829686526e-08</v>
+        <v>7.645002459894952e-08</v>
       </c>
     </row>
     <row r="31">
@@ -4203,7 +4203,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.746594437059909e-08</v>
+        <v>7.777284537361306e-08</v>
       </c>
     </row>
     <row r="32">
@@ -4216,7 +4216,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.75576932878056e-08</v>
+        <v>7.837395354414738e-08</v>
       </c>
     </row>
     <row r="33">
@@ -4229,7 +4229,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.7576667733586e-08</v>
+        <v>7.974538641268177e-08</v>
       </c>
     </row>
     <row r="34">
@@ -4242,7 +4242,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.758275526356418e-08</v>
+        <v>7.850059102495012e-08</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.62242844464114</v>
+        <v>12.62242843395007</v>
       </c>
     </row>
     <row r="4">
@@ -4317,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.44399508193093</v>
+        <v>12.44399502889815</v>
       </c>
     </row>
     <row r="5">
@@ -4330,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.34927851658887</v>
+        <v>12.34927843996046</v>
       </c>
     </row>
     <row r="6">
@@ -4343,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.25563031998897</v>
+        <v>12.25563022071312</v>
       </c>
     </row>
     <row r="7">
@@ -4356,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.02267325108122</v>
+        <v>12.02267309455626</v>
       </c>
     </row>
     <row r="8">
@@ -4369,7 +4369,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>11.97854609681167</v>
+        <v>11.9785459216694</v>
       </c>
     </row>
     <row r="9">
@@ -4382,7 +4382,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>11.9172189186536</v>
+        <v>11.91721872638985</v>
       </c>
     </row>
     <row r="10">
@@ -4395,7 +4395,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>11.83785271264206</v>
+        <v>11.83785249028784</v>
       </c>
     </row>
     <row r="11">
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11.76423559432834</v>
+        <v>11.76423534503718</v>
       </c>
     </row>
     <row r="12">
@@ -4421,7 +4421,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>11.75334794453504</v>
+        <v>11.75334769197375</v>
       </c>
     </row>
     <row r="13">
@@ -4434,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>11.73436328820037</v>
+        <v>11.73436303024377</v>
       </c>
     </row>
     <row r="14">
@@ -4447,7 +4447,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>11.65697172152138</v>
+        <v>11.65697143760322</v>
       </c>
     </row>
     <row r="15">
@@ -4460,7 +4460,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>11.62827466255418</v>
+        <v>11.62827436782535</v>
       </c>
     </row>
     <row r="16">
@@ -4473,7 +4473,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11.61039482448651</v>
+        <v>11.61039452247346</v>
       </c>
     </row>
     <row r="17">
@@ -4486,7 +4486,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>11.5930769918849</v>
+        <v>11.5930766836821</v>
       </c>
     </row>
     <row r="18">
@@ -4499,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>11.56741251799817</v>
+        <v>11.56741219962799</v>
       </c>
     </row>
     <row r="19">
@@ -4512,7 +4512,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>11.55972706446966</v>
+        <v>11.55972674395362</v>
       </c>
     </row>
     <row r="20">
@@ -4525,7 +4525,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>12.61573936253929</v>
+        <v>12.61573934631681</v>
       </c>
     </row>
     <row r="21">
@@ -4538,7 +4538,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>12.57044704650234</v>
+        <v>12.5704469913163</v>
       </c>
     </row>
     <row r="22">
@@ -4551,7 +4551,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>12.56152804003205</v>
+        <v>12.56152797679299</v>
       </c>
     </row>
     <row r="23">
@@ -4564,7 +4564,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>12.55345832571749</v>
+        <v>12.55345825502521</v>
       </c>
     </row>
     <row r="24">
@@ -4577,7 +4577,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>12.39859980809036</v>
+        <v>12.39859974721747</v>
       </c>
     </row>
     <row r="25">
@@ -4590,7 +4590,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>12.31414299464179</v>
+        <v>12.31414292295911</v>
       </c>
     </row>
     <row r="26">
@@ -4603,7 +4603,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>12.27204865313436</v>
+        <v>12.27204857613444</v>
       </c>
     </row>
     <row r="27">
@@ -4616,7 +4616,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>11.99824874996365</v>
+        <v>11.99824858914732</v>
       </c>
     </row>
     <row r="28">
@@ -4629,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>11.96579175471236</v>
+        <v>11.9657915887958</v>
       </c>
     </row>
     <row r="29">
@@ -4642,7 +4642,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>11.82096674246727</v>
+        <v>11.82096655519371</v>
       </c>
     </row>
     <row r="30">
@@ -4655,7 +4655,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>11.71692563635285</v>
+        <v>11.71692543571302</v>
       </c>
     </row>
     <row r="31">
@@ -4668,7 +4668,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>11.67188872274881</v>
+        <v>11.67188851678016</v>
       </c>
     </row>
     <row r="32">
@@ -4681,7 +4681,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>11.61920835434552</v>
+        <v>11.61920813871929</v>
       </c>
     </row>
     <row r="33">
@@ -4694,7 +4694,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>11.60761913239838</v>
+        <v>11.60761891455126</v>
       </c>
     </row>
     <row r="34">
@@ -4707,7 +4707,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>11.60402821208371</v>
+        <v>11.60402799282965</v>
       </c>
     </row>
   </sheetData>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.398937650713571e-33</v>
+        <v>-3.736627708246802e-32</v>
       </c>
     </row>
     <row r="3">
@@ -4769,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448136684299436</v>
+        <v>0.01448138588511354</v>
       </c>
     </row>
     <row r="4">
@@ -4782,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09604129681034847</v>
+        <v>0.0960413992461828</v>
       </c>
     </row>
     <row r="5">
@@ -4795,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616510053938786</v>
+        <v>0.161651154511723</v>
       </c>
     </row>
     <row r="6">
@@ -4808,7 +4808,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2282847580240785</v>
+        <v>0.228284952438707</v>
       </c>
     </row>
     <row r="7">
@@ -4821,7 +4821,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.133852585215248</v>
+        <v>0.1338528234234596</v>
       </c>
     </row>
     <row r="8">
@@ -4834,7 +4834,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09647446728470545</v>
+        <v>-0.09647426507826307</v>
       </c>
     </row>
     <row r="9">
@@ -4847,7 +4847,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06040367761971464</v>
+        <v>-0.06040341567036418</v>
       </c>
     </row>
     <row r="10">
@@ -4860,7 +4860,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.133485223560149</v>
+        <v>-0.1334849131156316</v>
       </c>
     </row>
     <row r="11">
@@ -4873,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1960148683033026</v>
+        <v>-0.1960145126963576</v>
       </c>
     </row>
     <row r="12">
@@ -4886,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1887619488352426</v>
+        <v>-0.1887615811494539</v>
       </c>
     </row>
     <row r="13">
@@ -4899,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1772699179324704</v>
+        <v>-0.1772695301702769</v>
       </c>
     </row>
     <row r="14">
@@ -4912,7 +4912,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2685875282536778</v>
+        <v>-0.2685871030179534</v>
       </c>
     </row>
     <row r="15">
@@ -4925,7 +4925,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.347268441720192</v>
+        <v>-0.3472680158881132</v>
       </c>
     </row>
     <row r="16">
@@ -4938,7 +4938,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.384951198026119</v>
+        <v>-0.3849507641879209</v>
       </c>
     </row>
     <row r="17">
@@ -4951,7 +4951,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4082058982537354</v>
+        <v>-0.4082054540592909</v>
       </c>
     </row>
     <row r="18">
@@ -4964,7 +4964,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4854740796908858</v>
+        <v>-0.4854736354046018</v>
       </c>
     </row>
     <row r="19">
@@ -4977,7 +4977,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4950636510954952</v>
+        <v>-0.4950632037488499</v>
       </c>
     </row>
     <row r="20">
@@ -4990,7 +4990,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00365085146096342</v>
+        <v>0.003650869465177307</v>
       </c>
     </row>
     <row r="21">
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06332771620293719</v>
+        <v>-0.06332769559051464</v>
       </c>
     </row>
     <row r="22">
@@ -5016,7 +5016,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08268558639753619</v>
+        <v>-0.08268556993473861</v>
       </c>
     </row>
     <row r="23">
@@ -5029,7 +5029,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1030331466168753</v>
+        <v>-0.103033136052078</v>
       </c>
     </row>
     <row r="24">
@@ -5042,7 +5042,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06507966281179672</v>
+        <v>0.06507977702020851</v>
       </c>
     </row>
     <row r="25">
@@ -5055,7 +5055,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02365423099333748</v>
+        <v>-0.0236541042050324</v>
       </c>
     </row>
     <row r="26">
@@ -5068,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06735485339816975</v>
+        <v>-0.06735471998274035</v>
       </c>
     </row>
     <row r="27">
@@ -5081,7 +5081,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17330890092274</v>
+        <v>0.1733091466011761</v>
       </c>
     </row>
     <row r="28">
@@ -5094,7 +5094,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2294623984781134</v>
+        <v>0.2294626528304469</v>
       </c>
     </row>
     <row r="29">
@@ -5107,7 +5107,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3124083278371018</v>
+        <v>0.3124085975773334</v>
       </c>
     </row>
     <row r="30">
@@ -5120,7 +5120,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3903136123685005</v>
+        <v>0.3903138929319231</v>
       </c>
     </row>
     <row r="31">
@@ -5133,7 +5133,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4955847020509522</v>
+        <v>0.4955849954510333</v>
       </c>
     </row>
     <row r="32">
@@ -5146,7 +5146,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4111768171640946</v>
+        <v>0.4111771111235604</v>
       </c>
     </row>
     <row r="33">
@@ -5159,7 +5159,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3881340926234936</v>
+        <v>0.388134385696985</v>
       </c>
     </row>
     <row r="34">
@@ -5172,7 +5172,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3804042084002042</v>
+        <v>0.3804045003650127</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3917673728877104</v>
+        <v>0.3917674661280354</v>
       </c>
     </row>
     <row r="3">
@@ -5234,7 +5234,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3455107910194637</v>
+        <v>0.3455108587690839</v>
       </c>
     </row>
     <row r="4">
@@ -5247,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2406776859563447</v>
+        <v>0.24067773725104</v>
       </c>
     </row>
     <row r="5">
@@ -5260,7 +5260,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2283526728652485</v>
+        <v>0.2283527203517113</v>
       </c>
     </row>
     <row r="6">
@@ -5273,7 +5273,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2221424170079334</v>
+        <v>0.2221424612277048</v>
       </c>
     </row>
     <row r="7">
@@ -5286,7 +5286,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1154622089803295</v>
+        <v>0.115462232643788</v>
       </c>
     </row>
     <row r="8">
@@ -5299,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09434225437474866</v>
+        <v>0.094342275441422</v>
       </c>
     </row>
     <row r="9">
@@ -5312,7 +5312,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07310690821282584</v>
+        <v>0.07310692672366285</v>
       </c>
     </row>
     <row r="10">
@@ -5325,7 +5325,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06669521489502286</v>
+        <v>0.06669523128662894</v>
       </c>
     </row>
     <row r="11">
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06024576824862396</v>
+        <v>0.06024578265370839</v>
       </c>
     </row>
     <row r="12">
@@ -5351,7 +5351,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05540932147503326</v>
+        <v>0.05540933394235398</v>
       </c>
     </row>
     <row r="13">
@@ -5364,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04894775057272881</v>
+        <v>0.04894776111659978</v>
       </c>
     </row>
     <row r="14">
@@ -5377,7 +5377,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04244937940941329</v>
+        <v>0.0424493881454143</v>
       </c>
     </row>
     <row r="15">
@@ -5390,7 +5390,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02943771272987171</v>
+        <v>0.02943771951271089</v>
       </c>
     </row>
     <row r="16">
@@ -5403,7 +5403,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02290278385541461</v>
+        <v>0.02290278892594189</v>
       </c>
     </row>
     <row r="17">
@@ -5416,7 +5416,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01636633482024667</v>
+        <v>0.01636633821444185</v>
       </c>
     </row>
     <row r="18">
@@ -5429,7 +5429,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009818404337845921</v>
+        <v>0.009818406085505063</v>
       </c>
     </row>
     <row r="19">
@@ -5442,7 +5442,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03622529868071757</v>
+        <v>0.03622532190930122</v>
       </c>
     </row>
     <row r="20">
@@ -5455,7 +5455,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02719347410510369</v>
+        <v>0.02719349194165419</v>
       </c>
     </row>
     <row r="21">
@@ -5468,7 +5468,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01813382345229196</v>
+        <v>0.01813383532799422</v>
       </c>
     </row>
     <row r="22">
@@ -5481,7 +5481,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.009069106294598891</v>
+        <v>0.009069112220086342</v>
       </c>
     </row>
     <row r="23">
@@ -5494,7 +5494,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09567008242884904</v>
+        <v>0.09567009415843242</v>
       </c>
     </row>
     <row r="24">
@@ -5507,7 +5507,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08647455146792626</v>
+        <v>0.08647455901433254</v>
       </c>
     </row>
     <row r="25">
@@ -5520,7 +5520,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04330343487587952</v>
+        <v>0.0433034385648579</v>
       </c>
     </row>
     <row r="26">
@@ -5533,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1003572530664923</v>
+        <v>0.1003572711224399</v>
       </c>
     </row>
     <row r="27">
@@ -5546,7 +5546,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0940183892860304</v>
+        <v>0.0940184048373645</v>
       </c>
     </row>
     <row r="28">
@@ -5559,7 +5559,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08765976105256057</v>
+        <v>0.08765977418776744</v>
       </c>
     </row>
     <row r="29">
@@ -5572,7 +5572,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0812223176261981</v>
+        <v>0.08122232859149497</v>
       </c>
     </row>
     <row r="30">
@@ -5585,7 +5585,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06820524705185679</v>
+        <v>0.06820525585398723</v>
       </c>
     </row>
     <row r="31">
@@ -5598,7 +5598,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04595001893120483</v>
+        <v>0.0459500251707155</v>
       </c>
     </row>
     <row r="32">
@@ -5611,7 +5611,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02955209013713142</v>
+        <v>0.02955209426997546</v>
       </c>
     </row>
     <row r="33">
@@ -5624,7 +5624,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006574821388362934</v>
+        <v>0.006574823282839898</v>
       </c>
     </row>
     <row r="34">
@@ -5751,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.997032262609885</v>
+        <v>0.9970322617654085</v>
       </c>
     </row>
     <row r="4">
@@ -5764,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.982938000152522</v>
+        <v>0.9829379959635191</v>
       </c>
     </row>
     <row r="5">
@@ -5777,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9754564389090734</v>
+        <v>0.9754564328562763</v>
       </c>
     </row>
     <row r="6">
@@ -5790,7 +5790,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9680592669817508</v>
+        <v>0.9680592591400572</v>
       </c>
     </row>
     <row r="7">
@@ -5803,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9496582346825607</v>
+        <v>0.9496582223188202</v>
       </c>
     </row>
     <row r="8">
@@ -5816,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9461726774732757</v>
+        <v>0.9461726636389733</v>
       </c>
     </row>
     <row r="9">
@@ -5829,7 +5829,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9413285085824332</v>
+        <v>0.9413284933957227</v>
       </c>
     </row>
     <row r="10">
@@ -5842,7 +5842,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9350594559748864</v>
+        <v>0.9350594384113616</v>
       </c>
     </row>
     <row r="11">
@@ -5855,7 +5855,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9292445177194577</v>
+        <v>0.9292444980282133</v>
       </c>
     </row>
     <row r="12">
@@ -5868,7 +5868,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9283845137863379</v>
+        <v>0.9283844938367891</v>
       </c>
     </row>
     <row r="13">
@@ -5881,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9268849358768061</v>
+        <v>0.9268849155010874</v>
       </c>
     </row>
     <row r="14">
@@ -5894,7 +5894,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9207718579400777</v>
+        <v>0.9207718355136825</v>
       </c>
     </row>
     <row r="15">
@@ -5907,7 +5907,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9185051076267128</v>
+        <v>0.9185050843463943</v>
       </c>
     </row>
     <row r="16">
@@ -5920,7 +5920,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9170927981426945</v>
+        <v>0.9170927742870033</v>
       </c>
     </row>
     <row r="17">
@@ -5933,7 +5933,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9157248808755848</v>
+        <v>0.9157248565309712</v>
       </c>
     </row>
     <row r="18">
@@ -5946,7 +5946,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9136976712478807</v>
+        <v>0.9136976461001571</v>
       </c>
     </row>
     <row r="19">
@@ -5959,7 +5959,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.913090605408346</v>
+        <v>0.9130905800911233</v>
       </c>
     </row>
     <row r="20">
@@ -5972,7 +5972,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.996503899094731</v>
+        <v>0.9965038978133338</v>
       </c>
     </row>
     <row r="21">
@@ -5985,7 +5985,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9929263069907063</v>
+        <v>0.9929263026316189</v>
       </c>
     </row>
     <row r="22">
@@ -5998,7 +5998,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9922218041099565</v>
+        <v>0.9922217991147698</v>
       </c>
     </row>
     <row r="23">
@@ -6011,7 +6011,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9915843859176532</v>
+        <v>0.991584380333745</v>
       </c>
     </row>
     <row r="24">
@@ -6024,7 +6024,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9793522755205656</v>
+        <v>0.9793522707122808</v>
       </c>
     </row>
     <row r="25">
@@ -6037,7 +6037,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9726811212197303</v>
+        <v>0.9726811155575914</v>
       </c>
     </row>
     <row r="26">
@@ -6050,7 +6050,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9693561337388907</v>
+        <v>0.9693561276567491</v>
       </c>
     </row>
     <row r="27">
@@ -6063,7 +6063,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9477289691914413</v>
+        <v>0.9477289564887302</v>
       </c>
     </row>
     <row r="28">
@@ -6076,7 +6076,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9451652254907081</v>
+        <v>0.9451652123851341</v>
       </c>
     </row>
     <row r="29">
@@ -6089,7 +6089,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9337256510637653</v>
+        <v>0.9337256362712252</v>
       </c>
     </row>
     <row r="30">
@@ -6102,7 +6102,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9255075542142852</v>
+        <v>0.9255075383659577</v>
       </c>
     </row>
     <row r="31">
@@ -6115,7 +6115,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9219501360781054</v>
+        <v>0.9219501198088598</v>
       </c>
     </row>
     <row r="32">
@@ -6128,7 +6128,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.917788969537561</v>
+        <v>0.9177889525054729</v>
       </c>
     </row>
     <row r="33">
@@ -6141,7 +6141,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9168735491625891</v>
+        <v>0.9168735319550757</v>
       </c>
     </row>
     <row r="34">
@@ -6154,7 +6154,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9165899061677496</v>
+        <v>0.9165898888491035</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2435137811827695</v>
+        <v>-0.2435138862780923</v>
       </c>
     </row>
     <row r="3">
@@ -6216,7 +6216,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2213518100248035</v>
+        <v>-0.2213518906692293</v>
       </c>
     </row>
     <row r="4">
@@ -6229,7 +6229,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1709400739137021</v>
+        <v>-0.1709401338145055</v>
       </c>
     </row>
     <row r="5">
@@ -6242,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1627735349342159</v>
+        <v>-0.1627735899002636</v>
       </c>
     </row>
     <row r="6">
@@ -6255,7 +6255,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1596992799226283</v>
+        <v>-0.1596993311247625</v>
       </c>
     </row>
     <row r="7">
@@ -6268,7 +6268,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05531741173495035</v>
+        <v>-0.05531744228116366</v>
       </c>
     </row>
     <row r="8">
@@ -6281,7 +6281,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04471294977514609</v>
+        <v>-0.0447129783014992</v>
       </c>
     </row>
     <row r="9">
@@ -6294,7 +6294,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03406728293531405</v>
+        <v>-0.03406730849109128</v>
       </c>
     </row>
     <row r="10">
@@ -6307,7 +6307,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03191344829803835</v>
+        <v>-0.03191347108341762</v>
       </c>
     </row>
     <row r="11">
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02973909574145805</v>
+        <v>-0.02973911589085801</v>
       </c>
     </row>
     <row r="12">
@@ -6333,7 +6333,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02649173510441952</v>
+        <v>-0.02649175260357479</v>
       </c>
     </row>
     <row r="13">
@@ -6346,7 +6346,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02269564667446068</v>
+        <v>-0.02269566155253418</v>
       </c>
     </row>
     <row r="14">
@@ -6359,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01886399381343835</v>
+        <v>-0.01886400616059371</v>
       </c>
     </row>
     <row r="15">
@@ -6372,7 +6372,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01007517541552415</v>
+        <v>-0.01007518516221731</v>
       </c>
     </row>
     <row r="16">
@@ -6385,7 +6385,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.008940852523970005</v>
+        <v>-0.008940859841281137</v>
       </c>
     </row>
     <row r="17">
@@ -6398,7 +6398,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.006710175637263463</v>
+        <v>-0.006710180483692686</v>
       </c>
     </row>
     <row r="18">
@@ -6411,7 +6411,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.004465717107343309</v>
+        <v>-0.004465719566542334</v>
       </c>
     </row>
     <row r="19">
@@ -6424,7 +6424,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01614665156069093</v>
+        <v>-0.01614667195854608</v>
       </c>
     </row>
     <row r="20">
@@ -6437,7 +6437,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01213319803255462</v>
+        <v>-0.01213321462650155</v>
       </c>
     </row>
     <row r="21">
@@ -6450,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.008094692328106449</v>
+        <v>-0.008094703472987571</v>
       </c>
     </row>
     <row r="22">
@@ -6463,7 +6463,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.004050256549200444</v>
+        <v>-0.004050262135940815</v>
       </c>
     </row>
     <row r="23">
@@ -6476,7 +6476,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04635766597517114</v>
+        <v>-0.04635768096563418</v>
       </c>
     </row>
     <row r="24">
@@ -6489,7 +6489,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04126270137487367</v>
+        <v>-0.04126271104740115</v>
       </c>
     </row>
     <row r="25">
@@ -6502,7 +6502,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02068316277174378</v>
+        <v>-0.02068316761833582</v>
       </c>
     </row>
     <row r="26">
@@ -6515,7 +6515,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1022906232093684</v>
+        <v>-0.102290640775146</v>
       </c>
     </row>
     <row r="27">
@@ -6528,7 +6528,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.09967191020327212</v>
+        <v>-0.0996719247767496</v>
       </c>
     </row>
     <row r="28">
@@ -6541,7 +6541,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.09705232461492411</v>
+        <v>-0.09705233879587491</v>
       </c>
     </row>
     <row r="29">
@@ -6554,7 +6554,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.09494544721019089</v>
+        <v>-0.09494545893114031</v>
       </c>
     </row>
     <row r="30">
@@ -6567,7 +6567,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.08747054176482108</v>
+        <v>-0.08747055118462951</v>
       </c>
     </row>
     <row r="31">
@@ -6580,7 +6580,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02258117951686608</v>
+        <v>-0.02258118578535782</v>
       </c>
     </row>
     <row r="32">
@@ -6593,7 +6593,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01507164804793448</v>
+        <v>-0.01507165218359569</v>
       </c>
     </row>
     <row r="33">
@@ -6606,7 +6606,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.004320434446255378</v>
+        <v>-0.004320436564694302</v>
       </c>
     </row>
     <row r="34">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212780636085268</v>
+        <v>0.212780760326641</v>
       </c>
     </row>
     <row r="3">
@@ -6733,7 +6733,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1683743305121523</v>
+        <v>0.1683744130301923</v>
       </c>
     </row>
     <row r="4">
@@ -6746,7 +6746,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08714625738692282</v>
+        <v>0.08714630255680168</v>
       </c>
     </row>
     <row r="5">
@@ -6759,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07864016687968362</v>
+        <v>0.07864020646104607</v>
       </c>
     </row>
     <row r="6">
@@ -6772,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07485111344193257</v>
+        <v>0.07485114944199886</v>
       </c>
     </row>
     <row r="7">
@@ -6785,7 +6785,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0163915377436713</v>
+        <v>0.0163915465876181</v>
       </c>
     </row>
     <row r="8">
@@ -6798,7 +6798,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01089970883810452</v>
+        <v>0.01089971536405547</v>
       </c>
     </row>
     <row r="9">
@@ -6811,7 +6811,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006505199795033282</v>
+        <v>0.006505204242806191</v>
       </c>
     </row>
     <row r="10">
@@ -6824,7 +6824,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005466719872164847</v>
+        <v>0.00546672351296906</v>
       </c>
     </row>
     <row r="11">
@@ -6837,7 +6837,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004513966407386515</v>
+        <v>0.004513969341527754</v>
       </c>
     </row>
     <row r="12">
@@ -6850,7 +6850,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003772004935166315</v>
+        <v>0.003772007243944313</v>
       </c>
     </row>
     <row r="13">
@@ -6863,7 +6863,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002910974664102031</v>
+        <v>0.002910976371634896</v>
       </c>
     </row>
     <row r="14">
@@ -6876,7 +6876,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002157800074837761</v>
+        <v>0.002157801282346957</v>
       </c>
     </row>
     <row r="15">
@@ -6889,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009680880904200331</v>
+        <v>0.0009680886861620033</v>
       </c>
     </row>
     <row r="16">
@@ -6902,7 +6902,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000604476352183221</v>
+        <v>0.0006044767152876801</v>
       </c>
     </row>
     <row r="17">
@@ -6915,7 +6915,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003128833725313426</v>
+        <v>0.0003128835486732298</v>
       </c>
     </row>
     <row r="18">
@@ -6928,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001163436930242503</v>
+        <v>0.0001163437493068819</v>
       </c>
     </row>
     <row r="19">
@@ -6941,7 +6941,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001572986621129561</v>
+        <v>0.001572988962769397</v>
       </c>
     </row>
     <row r="20">
@@ -6954,7 +6954,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008866995284021321</v>
+        <v>0.0008867009011535623</v>
       </c>
     </row>
     <row r="21">
@@ -6967,7 +6967,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003943595968855993</v>
+        <v>0.0003943602080184083</v>
       </c>
     </row>
     <row r="22">
@@ -6980,7 +6980,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>9.865326709707432e-05</v>
+        <v>9.865341983035527e-05</v>
       </c>
     </row>
     <row r="23">
@@ -6993,7 +6993,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01130179786660831</v>
+        <v>0.01130180150079485</v>
       </c>
     </row>
     <row r="24">
@@ -7006,7 +7006,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00918045857633103</v>
+        <v>0.009180460679704603</v>
       </c>
     </row>
     <row r="25">
@@ -7019,7 +7019,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002302980694291987</v>
+        <v>0.002302981214268598</v>
       </c>
     </row>
     <row r="26">
@@ -7032,7 +7032,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02053494983961297</v>
+        <v>0.02053495705733288</v>
       </c>
     </row>
     <row r="27">
@@ -7045,7 +7045,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0187739472075087</v>
+        <v>0.0187739530368646</v>
       </c>
     </row>
     <row r="28">
@@ -7058,7 +7058,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01710338742095262</v>
+        <v>0.01710339247639966</v>
       </c>
     </row>
     <row r="29">
@@ -7071,7 +7071,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01561170282651416</v>
+        <v>0.01561170683346963</v>
       </c>
     </row>
     <row r="30">
@@ -7084,7 +7084,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01230305140203613</v>
+        <v>0.01230305425065075</v>
       </c>
     </row>
     <row r="31">
@@ -7097,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002621313908151015</v>
+        <v>0.002621314764662234</v>
       </c>
     </row>
     <row r="32">
@@ -7110,7 +7110,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001100480606353948</v>
+        <v>0.001100480975284801</v>
       </c>
     </row>
     <row r="33">
@@ -7123,7 +7123,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>6.189443009326471e-05</v>
+        <v>6.189447331012112e-05</v>
       </c>
     </row>
     <row r="34">
@@ -7237,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.441606803506622e-35</v>
+        <v>-6.521645643015676e-34</v>
       </c>
     </row>
     <row r="3">
@@ -7250,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002527475315993884</v>
+        <v>0.0002527478639470645</v>
       </c>
     </row>
     <row r="4">
@@ -7263,7 +7263,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001676236847225709</v>
+        <v>0.00167623863506829</v>
       </c>
     </row>
     <row r="5">
@@ -7276,7 +7276,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002821342283282294</v>
+        <v>0.002821344885879653</v>
       </c>
     </row>
     <row r="6">
@@ -7289,7 +7289,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003984320659638714</v>
+        <v>0.003984324052814096</v>
       </c>
     </row>
     <row r="7">
@@ -7302,7 +7302,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002336168324312361</v>
+        <v>0.002336172481829958</v>
       </c>
     </row>
     <row r="8">
@@ -7315,7 +7315,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.001683797098225664</v>
+        <v>-0.001683793569057475</v>
       </c>
     </row>
     <row r="9">
@@ -7328,7 +7328,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.001054243054777232</v>
+        <v>-0.001054238482898593</v>
       </c>
     </row>
     <row r="10">
@@ -7341,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.002329756653885308</v>
+        <v>-0.002329751235606334</v>
       </c>
     </row>
     <row r="11">
@@ -7354,7 +7354,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.003421104834755701</v>
+        <v>-0.003421098628243668</v>
       </c>
     </row>
     <row r="12">
@@ -7367,7 +7367,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.003294517509656058</v>
+        <v>-0.003294511092328433</v>
       </c>
     </row>
     <row r="13">
@@ -7380,7 +7380,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.003093943732661748</v>
+        <v>-0.003093936964934756</v>
       </c>
     </row>
     <row r="14">
@@ -7393,7 +7393,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.004687736697819972</v>
+        <v>-0.004687729276056485</v>
       </c>
     </row>
     <row r="15">
@@ -7406,7 +7406,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.006060977696287391</v>
+        <v>-0.006060970264115556</v>
       </c>
     </row>
     <row r="16">
@@ -7419,7 +7419,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.006718665865052473</v>
+        <v>-0.006718658293147495</v>
       </c>
     </row>
     <row r="17">
@@ -7432,7 +7432,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.007124536950588654</v>
+        <v>-0.007124529197933079</v>
       </c>
     </row>
     <row r="18">
@@ -7445,7 +7445,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.008473121123695292</v>
+        <v>-0.008473113369436815</v>
       </c>
     </row>
     <row r="19">
@@ -7458,7 +7458,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.008640490718560824</v>
+        <v>-0.008640482910888965</v>
       </c>
     </row>
     <row r="20">
@@ -7471,7 +7471,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.371937849505692e-05</v>
+        <v>6.371969272786847e-05</v>
       </c>
     </row>
     <row r="21">
@@ -7484,7 +7484,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.001105277155509815</v>
+        <v>-0.001105276795755175</v>
       </c>
     </row>
     <row r="22">
@@ -7497,7 +7497,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.001443135726579244</v>
+        <v>-0.001443135439249222</v>
       </c>
     </row>
     <row r="23">
@@ -7510,7 +7510,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.001798267647154531</v>
+        <v>-0.001798267462764032</v>
       </c>
     </row>
     <row r="24">
@@ -7523,7 +7523,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001135854392153564</v>
+        <v>0.001135856385466383</v>
       </c>
     </row>
     <row r="25">
@@ -7536,7 +7536,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.000412844212861028</v>
+        <v>-0.0004128419999876513</v>
       </c>
     </row>
     <row r="26">
@@ -7549,7 +7549,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.001175563958996153</v>
+        <v>-0.001175561630457637</v>
       </c>
     </row>
     <row r="27">
@@ -7562,7 +7562,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003024810944114453</v>
+        <v>0.003024815232012062</v>
       </c>
     </row>
     <row r="28">
@@ -7575,7 +7575,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004004874362966304</v>
+        <v>0.004004878802251984</v>
       </c>
     </row>
     <row r="29">
@@ -7588,7 +7588,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005452553931407281</v>
+        <v>0.005452558639262448</v>
       </c>
     </row>
     <row r="30">
@@ -7601,7 +7601,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006812257651183197</v>
+        <v>0.006812262547938683</v>
       </c>
     </row>
     <row r="31">
@@ -7614,7 +7614,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008649584773304211</v>
+        <v>0.008649589894101651</v>
       </c>
     </row>
     <row r="32">
@@ -7627,7 +7627,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007176389267384184</v>
+        <v>0.00717639439794473</v>
       </c>
     </row>
     <row r="33">
@@ -7640,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006774217855520599</v>
+        <v>0.006774222970617974</v>
       </c>
     </row>
     <row r="34">
@@ -7653,7 +7653,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006639305925026235</v>
+        <v>0.006639311020773443</v>
       </c>
     </row>
   </sheetData>
@@ -7702,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.398937650713571e-33</v>
+        <v>-3.736627708246802e-32</v>
       </c>
     </row>
     <row r="3">
@@ -7715,7 +7715,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448136684299436</v>
+        <v>0.01448138588511354</v>
       </c>
     </row>
     <row r="4">
@@ -7728,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09604129681034847</v>
+        <v>0.0960413992461828</v>
       </c>
     </row>
     <row r="5">
@@ -7741,7 +7741,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1616510053938786</v>
+        <v>0.161651154511723</v>
       </c>
     </row>
     <row r="6">
@@ -7754,7 +7754,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2282847580240785</v>
+        <v>0.228284952438707</v>
       </c>
     </row>
     <row r="7">
@@ -7767,7 +7767,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.133852585215248</v>
+        <v>0.1338528234234596</v>
       </c>
     </row>
     <row r="8">
@@ -7780,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09647446728470546</v>
+        <v>-0.09647426507826307</v>
       </c>
     </row>
     <row r="9">
@@ -7793,7 +7793,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06040367761971465</v>
+        <v>-0.06040341567036418</v>
       </c>
     </row>
     <row r="10">
@@ -7806,7 +7806,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.133485223560149</v>
+        <v>-0.1334849131156316</v>
       </c>
     </row>
     <row r="11">
@@ -7819,7 +7819,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1960148683033026</v>
+        <v>-0.1960145126963576</v>
       </c>
     </row>
     <row r="12">
@@ -7832,7 +7832,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1887619488352425</v>
+        <v>-0.1887615811494539</v>
       </c>
     </row>
     <row r="13">
@@ -7845,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1772699179324704</v>
+        <v>-0.1772695301702769</v>
       </c>
     </row>
     <row r="14">
@@ -7858,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2685875282536778</v>
+        <v>-0.2685871030179534</v>
       </c>
     </row>
     <row r="15">
@@ -7871,7 +7871,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.347268441720192</v>
+        <v>-0.3472680158881133</v>
       </c>
     </row>
     <row r="16">
@@ -7884,7 +7884,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.384951198026119</v>
+        <v>-0.3849507641879209</v>
       </c>
     </row>
     <row r="17">
@@ -7897,7 +7897,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4082058982537354</v>
+        <v>-0.4082054540592909</v>
       </c>
     </row>
     <row r="18">
@@ -7910,7 +7910,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4854740796908858</v>
+        <v>-0.4854736354046019</v>
       </c>
     </row>
     <row r="19">
@@ -7923,7 +7923,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4950636510954952</v>
+        <v>-0.4950632037488498</v>
       </c>
     </row>
     <row r="20">
@@ -7936,7 +7936,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00365085146096342</v>
+        <v>0.003650869465177307</v>
       </c>
     </row>
     <row r="21">
@@ -7949,7 +7949,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06332771620293717</v>
+        <v>-0.06332769559051464</v>
       </c>
     </row>
     <row r="22">
@@ -7962,7 +7962,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08268558639753619</v>
+        <v>-0.08268556993473861</v>
       </c>
     </row>
     <row r="23">
@@ -7975,7 +7975,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1030331466168753</v>
+        <v>-0.1030331360520779</v>
       </c>
     </row>
     <row r="24">
@@ -7988,7 +7988,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06507966281179672</v>
+        <v>0.06507977702020851</v>
       </c>
     </row>
     <row r="25">
@@ -8001,7 +8001,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02365423099333748</v>
+        <v>-0.0236541042050324</v>
       </c>
     </row>
     <row r="26">
@@ -8014,7 +8014,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06735485339816975</v>
+        <v>-0.06735471998274034</v>
       </c>
     </row>
     <row r="27">
@@ -8027,7 +8027,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1733089009227401</v>
+        <v>0.1733091466011761</v>
       </c>
     </row>
     <row r="28">
@@ -8040,7 +8040,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2294623984781134</v>
+        <v>0.2294626528304469</v>
       </c>
     </row>
     <row r="29">
@@ -8053,7 +8053,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3124083278371018</v>
+        <v>0.3124085975773334</v>
       </c>
     </row>
     <row r="30">
@@ -8066,7 +8066,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3903136123685005</v>
+        <v>0.3903138929319232</v>
       </c>
     </row>
     <row r="31">
@@ -8079,7 +8079,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4955847020509522</v>
+        <v>0.4955849954510333</v>
       </c>
     </row>
     <row r="32">
@@ -8092,7 +8092,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4111768171640946</v>
+        <v>0.4111771111235604</v>
       </c>
     </row>
     <row r="33">
@@ -8105,7 +8105,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3881340926234936</v>
+        <v>0.388134385696985</v>
       </c>
     </row>
     <row r="34">
@@ -8118,7 +8118,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3804042084002042</v>
+        <v>0.3804045003650127</v>
       </c>
     </row>
   </sheetData>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3917673728876874</v>
+        <v>0.3917674661280238</v>
       </c>
     </row>
     <row r="3">
@@ -8180,7 +8180,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.19131411900984e-09</v>
+        <v>9.473010252021019e-10</v>
       </c>
     </row>
     <row r="4">
@@ -8193,7 +8193,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.142265474932403e-09</v>
+        <v>4.552539035009056e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.543548624125041e-09</v>
+        <v>5.937662717574077e-09</v>
       </c>
     </row>
     <row r="6">
@@ -8219,7 +8219,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.53595516164084e-09</v>
+        <v>6.446932584767365e-09</v>
       </c>
     </row>
     <row r="7">
@@ -8232,7 +8232,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.69072763159443e-09</v>
+        <v>7.40953636112879e-09</v>
       </c>
     </row>
     <row r="8">
@@ -8245,7 +8245,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.704096321037281e-09</v>
+        <v>7.571594224150671e-09</v>
       </c>
     </row>
     <row r="9">
@@ -8258,7 +8258,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.735417988284585e-09</v>
+        <v>7.694976289375361e-09</v>
       </c>
     </row>
     <row r="10">
@@ -8271,7 +8271,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.764461220073586e-09</v>
+        <v>7.900360702321173e-09</v>
       </c>
     </row>
     <row r="11">
@@ -8284,7 +8284,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.786461487778797e-09</v>
+        <v>8.071662148234171e-09</v>
       </c>
     </row>
     <row r="12">
@@ -8297,7 +8297,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.789753216987735e-09</v>
+        <v>8.098615562112445e-09</v>
       </c>
     </row>
     <row r="13">
@@ -8310,7 +8310,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.795297772262887e-09</v>
+        <v>8.160551045492732e-09</v>
       </c>
     </row>
     <row r="14">
@@ -8323,7 +8323,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.813053066783056e-09</v>
+        <v>8.309619681471117e-09</v>
       </c>
     </row>
     <row r="15">
@@ -8336,7 +8336,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.818329879768805e-09</v>
+        <v>8.373516406189452e-09</v>
       </c>
     </row>
     <row r="16">
@@ -8349,7 +8349,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.82204447040731e-09</v>
+        <v>8.400403404116102e-09</v>
       </c>
     </row>
     <row r="17">
@@ -8362,7 +8362,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.825526414012278e-09</v>
+        <v>8.449397933135712e-09</v>
       </c>
     </row>
     <row r="18">
@@ -8375,7 +8375,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.829830630713477e-09</v>
+        <v>8.487614851273192e-09</v>
       </c>
     </row>
     <row r="19">
@@ -8388,7 +8388,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.831202087228515e-09</v>
+        <v>8.496859660487081e-09</v>
       </c>
     </row>
     <row r="20">
@@ -8401,7 +8401,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.453410302760672e-09</v>
+        <v>1.093323454380465e-09</v>
       </c>
     </row>
     <row r="21">
@@ -8414,7 +8414,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>7.93675989419458e-09</v>
+        <v>2.053044034454043e-09</v>
       </c>
     </row>
     <row r="22">
@@ -8427,7 +8427,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>8.084906786582041e-09</v>
+        <v>2.21947897372428e-09</v>
       </c>
     </row>
     <row r="23">
@@ -8440,7 +8440,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.19757108923487e-09</v>
+        <v>2.363418425474825e-09</v>
       </c>
     </row>
     <row r="24">
@@ -8453,7 +8453,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>9.283666481741113e-09</v>
+        <v>5.246932529080734e-09</v>
       </c>
     </row>
     <row r="25">
@@ -8466,7 +8466,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.449410021602441e-09</v>
+        <v>5.984174072031878e-09</v>
       </c>
     </row>
     <row r="26">
@@ -8479,7 +8479,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.50713732236587e-09</v>
+        <v>6.235778715343052e-09</v>
       </c>
     </row>
     <row r="27">
@@ -8492,7 +8492,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.701999656531271e-09</v>
+        <v>7.42801830078789e-09</v>
       </c>
     </row>
     <row r="28">
@@ -8505,7 +8505,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.715659986084673e-09</v>
+        <v>7.527823104633288e-09</v>
       </c>
     </row>
     <row r="29">
@@ -8518,7 +8518,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.755885344000799e-09</v>
+        <v>7.846806854219613e-09</v>
       </c>
     </row>
     <row r="30">
@@ -8531,7 +8531,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.77835258122745e-09</v>
+        <v>8.030656419256176e-09</v>
       </c>
     </row>
     <row r="31">
@@ -8544,7 +8544,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.788482089916256e-09</v>
+        <v>8.111268577531791e-09</v>
       </c>
     </row>
     <row r="32">
@@ -8557,7 +8557,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.800906902514491e-09</v>
+        <v>8.195800868819985e-09</v>
       </c>
     </row>
     <row r="33">
@@ -8570,7 +8570,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.803370557157041e-09</v>
+        <v>8.208921812723579e-09</v>
       </c>
     </row>
     <row r="34">
@@ -8583,7 +8583,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.803926253691461e-09</v>
+        <v>8.21414939959253e-09</v>
       </c>
     </row>
   </sheetData>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2435137811827705</v>
+        <v>0.2435138862780854</v>
       </c>
     </row>
     <row r="3">
@@ -8645,7 +8645,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.625488449909407e-09</v>
+        <v>5.856249545146451e-10</v>
       </c>
     </row>
     <row r="4">
@@ -8658,7 +8658,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.67934317989271e-09</v>
+        <v>3.017526583934277e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8671,7 +8671,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.093467988983527e-09</v>
+        <v>4.287777250214457e-09</v>
       </c>
     </row>
     <row r="6">
@@ -8684,7 +8684,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.312134578353692e-09</v>
+        <v>5.659824008525249e-09</v>
       </c>
     </row>
     <row r="7">
@@ -8697,7 +8697,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9.553386594073174e-09</v>
+        <v>6.614374734764101e-09</v>
       </c>
     </row>
     <row r="8">
@@ -8710,7 +8710,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9.568192319726992e-09</v>
+        <v>7.736825938644911e-09</v>
       </c>
     </row>
     <row r="9">
@@ -8723,7 +8723,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.600586480744906e-09</v>
+        <v>6.87672968437309e-09</v>
       </c>
     </row>
     <row r="10">
@@ -8736,7 +8736,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.632604489085409e-09</v>
+        <v>7.051792750248803e-09</v>
       </c>
     </row>
     <row r="11">
@@ -8749,7 +8749,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>9.658801629297252e-09</v>
+        <v>7.220807944014363e-09</v>
       </c>
     </row>
     <row r="12">
@@ -8762,7 +8762,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>9.662914587660078e-09</v>
+        <v>7.24399607419184e-09</v>
       </c>
     </row>
     <row r="13">
@@ -8775,7 +8775,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>9.669695098942468e-09</v>
+        <v>7.282113645709752e-09</v>
       </c>
     </row>
     <row r="14">
@@ -8788,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9.691495138776061e-09</v>
+        <v>7.409639070460421e-09</v>
       </c>
     </row>
     <row r="15">
@@ -8801,7 +8801,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9.697878681758396e-09</v>
+        <v>7.433844507495674e-09</v>
       </c>
     </row>
     <row r="16">
@@ -8814,7 +8814,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9.701368724615845e-09</v>
+        <v>7.464583774752323e-09</v>
       </c>
     </row>
     <row r="17">
@@ -8827,7 +8827,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9.705151915604361e-09</v>
+        <v>7.460151570324347e-09</v>
       </c>
     </row>
     <row r="18">
@@ -8840,7 +8840,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>9.710132337739114e-09</v>
+        <v>7.550275714458682e-09</v>
       </c>
     </row>
     <row r="19">
@@ -8853,7 +8853,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9.711904976491359e-09</v>
+        <v>7.520945702648132e-09</v>
       </c>
     </row>
     <row r="20">
@@ -8866,7 +8866,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>4.428254497006623e-09</v>
+        <v>6.396296771670428e-10</v>
       </c>
     </row>
     <row r="21">
@@ -8879,7 +8879,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>6.485447463354646e-09</v>
+        <v>1.095797336721491e-09</v>
       </c>
     </row>
     <row r="22">
@@ -8892,7 +8892,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>6.674940201288336e-09</v>
+        <v>1.186111336650457e-09</v>
       </c>
     </row>
     <row r="23">
@@ -8905,7 +8905,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6.764693643786182e-09</v>
+        <v>1.25640884576436e-09</v>
       </c>
     </row>
     <row r="24">
@@ -8918,7 +8918,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8.922809985935824e-09</v>
+        <v>3.716636845209373e-09</v>
       </c>
     </row>
     <row r="25">
@@ -8931,7 +8931,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>9.065464958963341e-09</v>
+        <v>4.396403061746329e-09</v>
       </c>
     </row>
     <row r="26">
@@ -8944,7 +8944,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>9.14632297656978e-09</v>
+        <v>4.480143494292499e-09</v>
       </c>
     </row>
     <row r="27">
@@ -8957,7 +8957,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>9.57668938284762e-09</v>
+        <v>6.741403937819118e-09</v>
       </c>
     </row>
     <row r="28">
@@ -8970,7 +8970,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>9.60499380469983e-09</v>
+        <v>9.232877484670614e-09</v>
       </c>
     </row>
     <row r="29">
@@ -8983,7 +8983,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>9.685139761156072e-09</v>
+        <v>7.38059548500415e-09</v>
       </c>
     </row>
     <row r="30">
@@ -8996,7 +8996,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.727205829686526e-09</v>
+        <v>7.645002459894953e-09</v>
       </c>
     </row>
     <row r="31">
@@ -9009,7 +9009,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.746594437059909e-09</v>
+        <v>7.777284537361307e-09</v>
       </c>
     </row>
     <row r="32">
@@ -9022,7 +9022,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>9.755769328780561e-09</v>
+        <v>7.837395354414738e-09</v>
       </c>
     </row>
     <row r="33">
@@ -9035,7 +9035,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>9.7576667733586e-09</v>
+        <v>7.974538641268177e-09</v>
       </c>
     </row>
     <row r="34">
@@ -9048,7 +9048,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>9.758275526356418e-09</v>
+        <v>7.850059102495011e-09</v>
       </c>
     </row>
   </sheetData>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917673728877104</v>
+        <v>3.917674661280354</v>
       </c>
     </row>
     <row r="3">
@@ -10040,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.444296146335761</v>
+        <v>3.444296817967038</v>
       </c>
     </row>
     <row r="4">
@@ -10053,7 +10053,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.362892639193412</v>
+        <v>2.362893129319655</v>
       </c>
     </row>
     <row r="5">
@@ -10066,7 +10066,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.222992306738734</v>
+        <v>2.222992750491309</v>
       </c>
     </row>
     <row r="6">
@@ -10079,7 +10079,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.144293506197811</v>
+        <v>2.144293909648616</v>
       </c>
     </row>
     <row r="7">
@@ -10092,7 +10092,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.095266133689039</v>
+        <v>1.095266341278578</v>
       </c>
     </row>
     <row r="8">
@@ -10105,7 +10105,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.893351718561187</v>
+        <v>0.8933519037927906</v>
       </c>
     </row>
     <row r="9">
@@ -10118,7 +10118,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6885138662415425</v>
+        <v>0.6885140281720799</v>
       </c>
     </row>
     <row r="10">
@@ -10131,7 +10131,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6243334424662818</v>
+        <v>0.6243335828974319</v>
       </c>
     </row>
     <row r="11">
@@ -10144,7 +10144,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5607726392663582</v>
+        <v>0.5607727601780446</v>
       </c>
     </row>
     <row r="12">
@@ -10157,7 +10157,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5152190372895464</v>
+        <v>0.5152191409300678</v>
       </c>
     </row>
     <row r="13">
@@ -10170,7 +10170,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4543380038364295</v>
+        <v>0.4543380905902873</v>
       </c>
     </row>
     <row r="14">
@@ -10183,7 +10183,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3916718752880978</v>
+        <v>0.3916719454436766</v>
       </c>
     </row>
     <row r="15">
@@ -10196,7 +10196,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2709428141230751</v>
+        <v>0.27094286942236</v>
       </c>
     </row>
     <row r="16">
@@ -10209,7 +10209,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2105859396904802</v>
+        <v>0.2105859805537386</v>
       </c>
     </row>
     <row r="17">
@@ -10222,7 +10222,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1503045723316906</v>
+        <v>0.1503045992646317</v>
       </c>
     </row>
     <row r="18">
@@ -10235,7 +10235,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09005303740125656</v>
+        <v>0.09005305077038608</v>
       </c>
     </row>
     <row r="19">
@@ -10248,7 +10248,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3611372143885925</v>
+        <v>0.3611374455741859</v>
       </c>
     </row>
     <row r="20">
@@ -10261,7 +10261,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2709763250372259</v>
+        <v>0.2709765023821712</v>
       </c>
     </row>
     <row r="21">
@@ -10274,7 +10274,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1801442294320319</v>
+        <v>0.1801443466515639</v>
       </c>
     </row>
     <row r="22">
@@ -10287,7 +10287,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09004355242717331</v>
+        <v>0.09004361083630841</v>
       </c>
     </row>
     <row r="23">
@@ -10300,7 +10300,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9396124681980343</v>
+        <v>0.9396125784235837</v>
       </c>
     </row>
     <row r="24">
@@ -10313,7 +10313,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8464309343882546</v>
+        <v>0.8464310032233585</v>
       </c>
     </row>
     <row r="25">
@@ -10326,7 +10326,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.421287356482092</v>
+        <v>0.4212873894863952</v>
       </c>
     </row>
     <row r="26">
@@ -10339,7 +10339,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9507789388168864</v>
+        <v>0.9507790934703144</v>
       </c>
     </row>
     <row r="27">
@@ -10352,7 +10352,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8881781441118606</v>
+        <v>0.8881782751113012</v>
       </c>
     </row>
     <row r="28">
@@ -10365,7 +10365,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8248492530778134</v>
+        <v>0.8248493611652981</v>
       </c>
     </row>
     <row r="29">
@@ -10378,7 +10378,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.753548511782367</v>
+        <v>0.7535485974387177</v>
       </c>
     </row>
     <row r="30">
@@ -10391,7 +10391,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6257152703595127</v>
+        <v>0.6257153365283407</v>
       </c>
     </row>
     <row r="31">
@@ -10404,7 +10404,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4218197044087236</v>
+        <v>0.4218197529034004</v>
       </c>
     </row>
     <row r="32">
@@ -10417,7 +10417,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2702261672842098</v>
+        <v>0.2702261992071532</v>
       </c>
     </row>
     <row r="33">
@@ -10430,7 +10430,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06001307052828447</v>
+        <v>0.06001308643525386</v>
       </c>
     </row>
     <row r="34">
